--- a/Process Results/Unified_IBNP_XCH.xlsx
+++ b/Process Results/Unified_IBNP_XCH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91D0E0AF-805B-4B8C-BB07-08C8DDE562C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01424FA5-62FF-42F0-9AD8-F06D510E62F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Process Results/Unified_IBNP_XCH.xlsx
+++ b/Process Results/Unified_IBNP_XCH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Completion Factors" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Plot Patterns" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Completion Factors" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Plot Patterns" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Summary" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -405,14 +405,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -435,16 +435,16 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -485,7 +485,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -496,7 +496,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -605,7 +605,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -616,7 +616,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -725,7 +725,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -736,7 +736,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -845,7 +845,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -856,7 +856,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -965,7 +965,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -976,7 +976,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1085,7 +1085,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -1098,7 +1098,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1207,7 +1207,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -1220,7 +1220,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1329,7 +1329,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -1342,7 +1342,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1451,7 +1451,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -1464,7 +1464,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1582,8 +1582,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1595,9 +1595,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -1633,7 +1633,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1650,16 +1650,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -1688,16 +1688,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -1722,10 +1722,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+    <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -1740,14 +1740,14 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -1770,16 +1770,16 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -1820,7 +1820,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1831,7 +1831,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1940,7 +1940,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1951,7 +1951,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2060,7 +2060,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -2071,7 +2071,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2180,7 +2180,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -2191,7 +2191,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2300,7 +2300,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -2311,7 +2311,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2420,7 +2420,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -2433,7 +2433,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2542,7 +2542,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -2555,7 +2555,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2664,7 +2664,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -2677,7 +2677,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2786,7 +2786,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -2799,7 +2799,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2917,8 +2917,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2930,9 +2930,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -2968,7 +2968,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -2985,16 +2985,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -3023,16 +3023,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -3057,10 +3057,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+    <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -3093,7 +3093,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>0</col>
@@ -3113,9 +3113,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3140,9 +3140,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3513,12 +3513,12 @@
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1461674213189783</v>
+        <v>0.09105537195165264</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1660981839325922</v>
+        <v>0.04506025644863915</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1359688014988958</v>
+        <v>0.1008120211068073</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.1554967490680452</v>
+        <v>0.06028666155956117</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6176774505084106</v>
+        <v>0.326348134476395</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6345885990526703</v>
+        <v>0.2261167289122021</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5524573882500967</v>
+        <v>0.4173040414719597</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.62601883700663</v>
+        <v>0.2671401478884529</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8303341605014901</v>
+        <v>0.565230690809579</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7986842281371269</v>
+        <v>0.4999235980668933</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7413847394775033</v>
+        <v>0.6542982008916016</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8142017336345012</v>
+        <v>0.5305750793820083</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8712590563846657</v>
+        <v>0.755143269133051</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8670098791367975</v>
+        <v>0.7409604360283408</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.8200065103575566</v>
+        <v>0.8077204003590118</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.8691292742297092</v>
+        <v>0.7479846270420578</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9070962213571593</v>
+        <v>0.8336221082796781</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9029159284492693</v>
+        <v>0.8494385873371667</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8717243465122358</v>
+        <v>0.8835119824712931</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9050012476293207</v>
+        <v>0.8414560305213432</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9342565719090021</v>
+        <v>0.8882558142433946</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9285371301640235</v>
+        <v>0.9048775183339409</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8979329754890401</v>
+        <v>0.9243679711998556</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9313880706724184</v>
+        <v>0.8964896276653109</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9434039141057069</v>
+        <v>0.9163576811625614</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9396181462589727</v>
+        <v>0.9301044130948658</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9124830762983366</v>
+        <v>0.9426360940504103</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9415072245874688</v>
+        <v>0.9231798755830302</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9508589364653648</v>
+        <v>0.9348004037770248</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9495634578679635</v>
+        <v>0.9479167764161424</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9332445722538861</v>
+        <v>0.9568222205117873</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9502107556161958</v>
+        <v>0.9413129010167213</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9554266211374586</v>
+        <v>0.9569699350227026</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9575553834723866</v>
+        <v>0.9640637361774749</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9464997215636427</v>
+        <v>0.9670811955503695</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9564898178638072</v>
+        <v>0.9605037379601105</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9594163510940478</v>
+        <v>0.9642659655364043</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9625804766368705</v>
+        <v>0.971626611313499</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9631720034166308</v>
+        <v>0.9724100196460019</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9609958093631245</v>
+        <v>0.9679322951107295</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9625098052013903</v>
+        <v>0.9692749944439155</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9670608628887079</v>
+        <v>0.9776857057003937</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9681829776213006</v>
+        <v>0.9765818819536912</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9647799670153734</v>
+        <v>0.9734621832792053</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9723667897675593</v>
+        <v>0.9721282075155927</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.973472956259629</v>
+        <v>0.9826112900115527</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9730123710026805</v>
+        <v>0.9817410731102632</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9729195585981057</v>
+        <v>0.9773416388750795</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.997826769607826</v>
+        <v>0.9751936689395079</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9873641446521245</v>
+        <v>0.9856615141001961</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.985616173229351</v>
+        <v>0.9902371431247707</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9925678863507175</v>
+        <v>0.980399650705238</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9987911558970985</v>
+        <v>0.9775972859931193</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9881551627824197</v>
+        <v>0.9883382422349264</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9865803605007428</v>
+        <v>0.9926136685920469</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9934446924535447</v>
+        <v>0.9829384223224605</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9992154880580879</v>
+        <v>0.9995045197174077</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9884704311891011</v>
+        <v>0.9993448333295685</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9879812958419472</v>
+        <v>0.9992834845349416</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9938139167436305</v>
+        <v>0.9994246701448828</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9995953078799688</v>
+        <v>0.9996070680078674</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9887265645727402</v>
+        <v>0.9995451722693403</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.988685370523218</v>
+        <v>0.9995780347038009</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9941312303767343</v>
+        <v>0.999576119180427</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9995953078799688</v>
+        <v>0.9996070680078674</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.98890624716246</v>
+        <v>0.9996755577596617</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.98891647550353</v>
+        <v>0.9996755577596617</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9942220483460389</v>
+        <v>0.9996413117106321</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9994764735633311</v>
+        <v>0.9996070680078674</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9889807314607926</v>
+        <v>0.9996755577596617</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9889807314607926</v>
+        <v>0.9996755577596617</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9942009024936744</v>
+        <v>0.9996413117106321</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4411,20 +4411,20 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9996168771509769</v>
+        <v>0.9996985373393995</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9996556646934076</v>
+        <v>0.9997635758985612</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.9996556646934076</v>
+        <v>0.9997635758985612</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.9996362705459371</v>
+        <v>0.9997310555611923</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4449,20 +4449,20 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9996360864604619</v>
+        <v>0.9999268905717964</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9997045906618001</v>
+        <v>0.999945317370599</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9997045906618001</v>
+        <v>0.999945317370599</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9996703373875376</v>
+        <v>0.9999361038863055</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -4487,20 +4487,20 @@
         <v/>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9999378935537994</v>
+        <v>1</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9999378935537994</v>
+        <v>1</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9999378935537994</v>
+        <v>1</v>
       </c>
       <c r="H27" s="4">
         <f>+I27/I28</f>
         <v/>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9999378935537994</v>
+        <v>1</v>
       </c>
       <c r="J27" s="5">
         <f>I27</f>
@@ -4833,67 +4833,67 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>7.280399609719852</v>
+        <v>5.650543676222597</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.406839918548721</v>
+        <v>1.831502730534608</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.106755835515396</v>
+        <v>1.175458136460255</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.03369650152496</v>
+        <v>1.091803869911118</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.032813996094163</v>
+        <v>1.05170616095451</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.028017261583115</v>
+        <v>1.031789991388363</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.004013410382579</v>
+        <v>1.007030545949972</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.005914265122987</v>
+        <v>1.055197645050192</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.00692940157688</v>
+        <v>1.001761787403793</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.002293905135762</v>
+        <v>1.002010093555658</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1.002704774301149</v>
+        <v>1.003072847998281</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.001660194102233</v>
+        <v>1.007263091370708</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1.001205100058687</v>
+        <v>1.000434291726868</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1.005184461661153</v>
+        <v>1.00021705159972</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>1.000205837908904</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>1.000411591096758</v>
+        <v>1</v>
       </c>
       <c r="R38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1.000411421759225</v>
+        <v>1</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>1.000205626280486</v>
+        <v>1.000220736975922</v>
       </c>
       <c r="U38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="V38" s="4" t="n">
-        <v>1.000205584007012</v>
+        <v>1</v>
       </c>
       <c r="W38" s="4" t="n">
         <v>1</v>
@@ -4908,64 +4908,64 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>4.449068508287293</v>
+        <v>12.00318746081505</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.488396540637844</v>
+        <v>1.608844233851364</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.090890159385115</v>
+        <v>1.164449812732891</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.035093731094892</v>
+        <v>1.045491657566316</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.021867586855989</v>
+        <v>1.039241738111956</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.007772966893741</v>
+        <v>1.010009265614593</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.005919289731152</v>
+        <v>1.085130032678902</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.00347717967989</v>
+        <v>1.011004277011274</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1.002132388183072</v>
+        <v>1.00324219177166</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.014061901874445</v>
+        <v>1.011680337509123</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.002804052154202</v>
+        <v>1.001140857942514</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.00133831319528</v>
+        <v>1.067012612125087</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1.003396705201527</v>
+        <v>1.0021359782554</v>
       </c>
       <c r="O39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1.000173550501009</v>
+        <v>1.000213142557671</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1.000347040772918</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>1.000346920377402</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1.055481074461511</v>
+        <v>1.000249792464698</v>
       </c>
       <c r="T39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>1.000328570614655</v>
+        <v>1</v>
       </c>
       <c r="V39" s="4" t="n">
         <v>1</v>
@@ -4983,67 +4983,67 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>5.799852093973443</v>
+        <v>3.312046447686703</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.300284224077286</v>
+        <v>1.643575148641234</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.077853519672046</v>
+        <v>1.231150587043677</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.05785818864832</v>
+        <v>1.062811531531758</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.016212320719437</v>
+        <v>1.039167849213101</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.008533227100501</v>
+        <v>1.030496276622901</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.05563415167307</v>
+        <v>1.020557942277401</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.035801468500495</v>
+        <v>1.003806367387428</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.011026444046314</v>
+        <v>1.014082234664426</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.009297949009343</v>
+        <v>1.002878205884089</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1.002763185296962</v>
+        <v>1.001545355317587</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1.061190129933674</v>
+        <v>1.005757529708913</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1</v>
+        <v>1.000243752617349</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1.000390478189353</v>
+        <v>1</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1.004293583532155</v>
+        <v>1.001231437345186</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1.000194328522083</v>
+        <v>1.000218839680501</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1.000194290765846</v>
+        <v>1</v>
       </c>
       <c r="S40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>0.9998640228830064</v>
+        <v>1</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W40" t="n">
         <v/>
@@ -5058,64 +5058,64 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>3.731448949320148</v>
+        <v>4.642747545582048</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.248159249902161</v>
+        <v>1.701369683139498</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.228616000919352</v>
+        <v>1.117165132035494</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.029918778063031</v>
+        <v>1.025826925165491</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.038734388241913</v>
+        <v>1.034302115100074</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.007275153695794</v>
+        <v>1.022291319963648</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.036894481780504</v>
+        <v>1.010268204952646</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.005471682654161</v>
+        <v>1.0229937983018</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.005752972326735</v>
+        <v>1.006238345724233</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.006423750590929</v>
+        <v>1.002583176280129</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1.00246989853896</v>
+        <v>1.028806063274569</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1.001894891074271</v>
+        <v>1.002971559949218</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1.000189130725304</v>
+        <v>0.9997730036820165</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1.006240133734008</v>
+        <v>1.000850430453221</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1.000620143594437</v>
+        <v>1.000294911412468</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>1.000187805834759</v>
+        <v>1</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>1.00018777057035</v>
+        <v>1</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>1</v>
+        <v>1.000748400565936</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>1.000563205957548</v>
+        <v>1.000226618448908</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5133,61 +5133,61 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>6.658003211009174</v>
+        <v>6.021175833333333</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.360919985446225</v>
+        <v>1.368674044978202</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.105004702829712</v>
+        <v>1.056464745873858</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.059915355910497</v>
+        <v>1.213422561901745</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.025736568768427</v>
+        <v>1.033181489446818</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.049409290337207</v>
+        <v>1.009577578750529</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.00664574403216</v>
+        <v>1.009134807223496</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.003113327788228</v>
+        <v>1.004747914284326</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.008406849823706</v>
+        <v>1.00223753057772</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.004929449521273</v>
+        <v>1.004022470318072</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1.003531793855785</v>
+        <v>1.00194564202314</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1.003128323721754</v>
+        <v>1.000369878828805</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1.000779641958007</v>
+        <v>1.006795600409541</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1.000196862040881</v>
+        <v>1.003113992477471</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1.0003894406289</v>
+        <v>1.000510132597499</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>1.000194644511969</v>
+        <v>1.000237847797974</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>0.9996691687241454</v>
+        <v>1</v>
       </c>
       <c r="S42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T42" s="4" t="n">
-        <v>1.000194671036123</v>
+        <v>1</v>
       </c>
       <c r="U42" s="4" t="n">
         <v/>
@@ -5208,49 +5208,49 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>7.323966619519094</v>
+        <v>6.666243516483515</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.224686061015622</v>
+        <v>1.180074264933563</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.048026400403641</v>
+        <v>1.049735489706262</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.028148262546589</v>
+        <v>1.077971258050086</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.0130967566811</v>
+        <v>1.031997696180096</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.019230742562278</v>
+        <v>1.011244241333573</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.010829609409657</v>
+        <v>1.009120594596904</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.040381143344786</v>
+        <v>1.001172203931413</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.008986185822142</v>
+        <v>1.004566242764788</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1.002804927846837</v>
+        <v>1.002837922340425</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.002159081095086</v>
+        <v>1.000232442242752</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1.002525241248258</v>
+        <v>1.001639917232609</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1.000795435937075</v>
+        <v>1.003556261230335</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1.000041541741184</v>
+        <v>1.000836152063713</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1</v>
+        <v>1.000300290186577</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>1</v>
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>1.000264923568491</v>
+        <v>1.000300200039451</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5283,46 +5283,46 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>4.262543695221167</v>
+        <v>2.982086211056519</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.412081124412651</v>
+        <v>1.328964486634368</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.043389687169802</v>
+        <v>1.092594281853076</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.105129051559694</v>
+        <v>1.020067329156093</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.028410658176324</v>
+        <v>1.015364584572399</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.011253741124672</v>
+        <v>1.008114239260951</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.019595303739627</v>
+        <v>1.003142963823825</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.010969019803196</v>
+        <v>1.00832098190946</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.050171243739675</v>
+        <v>1.003236244238675</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.00291512487906</v>
+        <v>1.001112662372641</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.007125984632927</v>
+        <v>1.000945912960873</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.002048189657298</v>
+        <v>1.003352180383127</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1.000557752714418</v>
+        <v>1.004372516578848</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1.000371429770616</v>
+        <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>1</v>
@@ -5358,49 +5358,49 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>15.97511222570533</v>
+        <v>4.286459259293914</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.270538922926508</v>
+        <v>1.189722358921143</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.055775243362532</v>
+        <v>1.115662056217009</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.049378265310332</v>
+        <v>1.030386702992693</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>0.9651598702409294</v>
+        <v>1.017485587622963</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.019399393497053</v>
+        <v>1.011705693488366</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.097734276190971</v>
+        <v>1.011814173519529</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.009924368797753</v>
+        <v>1.003437855361343</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.106287620682048</v>
+        <v>1.000495855076308</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.007855702754995</v>
+        <v>1.001672908052831</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.003897235851085</v>
+        <v>1.00315655423235</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.002405353104977</v>
+        <v>1.004569947690173</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1.000597776671729</v>
+        <v>1.000782923238223</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1.001045666349561</v>
+        <v>1.000719227265097</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1.00022743730918</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>1</v>
@@ -5433,49 +5433,49 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>6.775290420988408</v>
+        <v>3.737847812475928</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.35409048834363</v>
+        <v>1.152653250014817</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.176772072725725</v>
+        <v>1.164685709638206</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.051682096673207</v>
+        <v>1.061662902226928</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.057419820716007</v>
+        <v>1.01542696999043</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.021771271981</v>
+        <v>1.009692362733374</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.007292633454451</v>
+        <v>1.005964749127954</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.007904578815575</v>
+        <v>1</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.008885645427755</v>
+        <v>1.003169083307024</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.005098808565563</v>
+        <v>1.004392690379951</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1.001932420734759</v>
+        <v>1.003126685995315</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.003857387374173</v>
+        <v>1.001045898175292</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1.000240160319502</v>
+        <v>1.00086118178812</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1</v>
+        <v>1.001014916250152</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1.001032921627708</v>
+        <v>1.000337962413172</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5508,46 +5508,46 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>5.650543676222597</v>
+        <v>2.7507856801548</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.831502730534608</v>
+        <v>1.195872662375133</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.175458136460255</v>
+        <v>1.040994656014939</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.091803869911118</v>
+        <v>1.023845818917623</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.05170616095451</v>
+        <v>1.057833837528531</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.031789991388363</v>
+        <v>1.011369928519807</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.007030545949972</v>
+        <v>1.030626310190039</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.055197645050192</v>
+        <v>1.009119659763489</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.001761787403793</v>
+        <v>1.006765683972017</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.002010093555658</v>
+        <v>1.01103361799762</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.003072847998281</v>
+        <v>1.014568907733428</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.007263091370708</v>
+        <v>1.002921355492414</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1.000434291726868</v>
+        <v>1.002199680459483</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1.00021705159972</v>
+        <v>1.06308623663553</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5583,43 +5583,43 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>12.00318746081505</v>
+        <v>4.547525457094705</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.608844233851364</v>
+        <v>1.318061587301439</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.164449812732891</v>
+        <v>1.025779692390282</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.045491657566316</v>
+        <v>1.038660940186375</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.039241738111956</v>
+        <v>1.028595417660955</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.010009265614593</v>
+        <v>1.00816626726044</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.085130032678902</v>
+        <v>1.002339547408061</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.011004277011274</v>
+        <v>1.009749248498651</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.00324219177166</v>
+        <v>1.010317591414653</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.011680337509123</v>
+        <v>1.006193225217805</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.001140857942514</v>
+        <v>1.003428694655834</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1.067012612125087</v>
+        <v>1.003640330801131</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>1.0021359782554</v>
+        <v>1.004345163410331</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5658,40 +5658,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>3.310292062952938</v>
+        <v>2.812166719829878</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.643916229849277</v>
+        <v>1.244153036240944</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.231225107214959</v>
+        <v>1.082236397056187</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.062827978307229</v>
+        <v>1.025941176943001</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.039177498786777</v>
+        <v>1.006705757125141</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.030503506576101</v>
+        <v>1.011481325703622</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.020562671816675</v>
+        <v>1.023011170424628</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.003807225432731</v>
+        <v>1.008608810685935</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.014085397093354</v>
+        <v>1.00733481453725</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.00287884326129</v>
+        <v>1.0042741412926</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.001545696553357</v>
+        <v>1.003866597468905</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1.005758799088811</v>
+        <v>1.002924293129091</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>4.642747545582048</v>
+        <v>3.011775505782734</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.701369683139498</v>
+        <v>1.479287608230694</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.117165132035494</v>
+        <v>1.042966453020217</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.025826925165491</v>
+        <v>1.017068952192341</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.034302115100074</v>
+        <v>1.008119514967316</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.022291319963648</v>
+        <v>1.020985956286284</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.010268204952646</v>
+        <v>1.015291357850233</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.0229937983018</v>
+        <v>1.008693780281155</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.006238345724233</v>
+        <v>1.003645109730437</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.002583176280129</v>
+        <v>1.004610599703551</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1.028806063274569</v>
+        <v>1.001615361495679</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,34 +5808,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>6.021175833333333</v>
+        <v>18.7346925</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.368674044978202</v>
+        <v>1.195961516315253</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.056464745873858</v>
+        <v>1.01868754071529</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.213422561901745</v>
+        <v>1.037496357424887</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.033181489446818</v>
+        <v>1.033966464322135</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.009577578750529</v>
+        <v>1.026089632087081</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.009134807223496</v>
+        <v>1.015625801503831</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.004747914284326</v>
+        <v>1.042892325620552</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.00223753057772</v>
+        <v>1.004240070723431</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1.004022470318072</v>
+        <v>1.006585114008838</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>6.666243516483515</v>
+        <v>3.912327671518027</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.180074264933563</v>
+        <v>1.028159418799007</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.049735489706262</v>
+        <v>1.082712153956764</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.077971258050086</v>
+        <v>1.105806656215976</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.031997696180096</v>
+        <v>1.065220863835262</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.011244241333573</v>
+        <v>1.022769222428917</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.009120594596904</v>
+        <v>1.010505995151004</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.001172203931413</v>
+        <v>1.01862288435921</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1.004566242764788</v>
+        <v>1.013666652897787</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>2.982086211056519</v>
+        <v>1.499561310951239</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.328964486634368</v>
+        <v>1.732845715816062</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.092594281853076</v>
+        <v>2.123517580952487</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.020067329156093</v>
+        <v>1.226242225326448</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.015364584572399</v>
+        <v>1.092308672300674</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.008114239260951</v>
+        <v>1.03211478957913</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.003142963823825</v>
+        <v>1.020501130645478</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.00832098190946</v>
+        <v>1.012837869447625</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>4.286459259293914</v>
+        <v>14.53168856375037</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.189722358921143</v>
+        <v>5.060754760920172</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.115662056217009</v>
+        <v>1.863882013004156</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.030386702992693</v>
+        <v>1.243892040767971</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.017485587622963</v>
+        <v>1.037104167588666</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.011705693488366</v>
+        <v>1.027468166576695</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.011814173519529</v>
+        <v>1.027923058378737</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>3.737847812475928</v>
+        <v>266.4519111111111</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.152653250014817</v>
+        <v>3.067701188690625</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.164685709638206</v>
+        <v>1.278157859136648</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.061662902226928</v>
+        <v>1.067151096358495</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.01542696999043</v>
+        <v>1.043634960731884</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.009692362733374</v>
+        <v>1.035741933349781</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>2.7507856801548</v>
+        <v>5.091950636132315</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.195872662375133</v>
+        <v>1.887754489123831</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.040994656014939</v>
+        <v>1.275525454338785</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.023845818917623</v>
+        <v>1.121908406828971</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.057833837528531</v>
+        <v>1.114697737453841</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>4.547525457094705</v>
+        <v>5.21921231884058</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.318061587301439</v>
+        <v>1.718753996001118</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.025779692390282</v>
+        <v>1.28400962635512</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.038660940186375</v>
+        <v>1.131054641520127</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>2.812166719829878</v>
+        <v>2.85927807486631</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.244153036240944</v>
+        <v>1.796017468228957</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.082236397056187</v>
+        <v>1.521931814063803</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>3.011775505782734</v>
+        <v>4.6104329004329</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.479287608230694</v>
+        <v>1.685592623543441</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>18.7346925</v>
+        <v>3.707921142171412</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6569,7 +6569,7 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.1155593921080265</v>
+        <v>0.1107792955131116</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.1359688014988958</v>
+        <v>0.1008120211068073</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.1660981839325922</v>
+        <v>0.04506025644863915</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.1461674213189783</v>
+        <v>0.09105537195165264</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.08685648764743414</v>
+        <v>0.02306051021672108</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.101995496261523</v>
+        <v>0.01162916537413401</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.1063604280607737</v>
+        <v>0.003904181221301945</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.07514948646895432</v>
+        <v>0.08579612235686465</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.1554967490680452</v>
+        <v>0.06028666155956117</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>4.776612899770813</v>
+        <v>4.221562608588345</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>4.063118760773832</v>
+        <v>4.139427390606906</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>3.820563139391132</v>
+        <v>5.018096804884718</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>4.225821629297717</v>
+        <v>3.584062395019098</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>6.235357155427039</v>
+        <v>16.91493771111243</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>5.291983175336693</v>
+        <v>27.7035765379489</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>5.932465612556341</v>
+        <v>47.9901176972591</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>8.186211575204204</v>
+        <v>3.725877372490207</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>4.023192384344425</v>
+        <v>4.301079599951908</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.551982483032873</v>
+        <v>0.4676617317439104</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.5524573882500967</v>
+        <v>0.4173040414719597</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.6345885990526703</v>
+        <v>0.2261167289122021</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.6176774505084106</v>
+        <v>0.326348134476395</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.5415812217476887</v>
+        <v>0.390067093902309</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.5397584501760965</v>
+        <v>0.3221694730147868</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.6309795820073124</v>
+        <v>0.1873621163217091</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.6151895960028056</v>
+        <v>0.3196658309368432</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.62601883700663</v>
+        <v>0.2671401478884529</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.357102821100365</v>
+        <v>1.466563229896606</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.341976332013283</v>
+        <v>1.567917239870696</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.258585844954389</v>
+        <v>2.210909385041593</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.344284399273507</v>
+        <v>1.731986890982098</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.377686031468895</v>
+        <v>1.700740739692522</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.36763278720587</v>
+        <v>1.934586950767629</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.263291750514029</v>
+        <v>2.536095754418024</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.347167410591026</v>
+        <v>1.733454695924505</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.301435122113948</v>
+        <v>1.971448138011846</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.7490969849218961</v>
+        <v>0.6858554998053891</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.7413847394775033</v>
+        <v>0.6542982008916016</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.7986842281371269</v>
+        <v>0.4999235980668933</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.8303341605014901</v>
+        <v>0.565230690809579</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.7461288841076492</v>
+        <v>0.6634029978131253</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.7381913536322556</v>
+        <v>0.6232648584300904</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.7971113006926278</v>
+        <v>0.4751682677422624</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.8287633750696389</v>
+        <v>0.5541262357640799</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.8142017336345012</v>
+        <v>0.5305750793820083</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.104607657899148</v>
+        <v>1.18491925914762</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.106047193438946</v>
+        <v>1.23448360282566</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.085547765427941</v>
+        <v>1.482147349902044</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.049287260274175</v>
+        <v>1.335991271194882</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.107120706627464</v>
+        <v>1.228941294884067</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.109704268099452</v>
+        <v>1.303366770083723</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.08699213219495</v>
+        <v>1.5578373913085</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.049670248487136</v>
+        <v>1.360488964919236</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.067417512851058</v>
+        <v>1.409069310548463</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.8274582660538892</v>
+        <v>0.8126833907117221</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.8200065103575566</v>
+        <v>0.8077204003590118</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.8670098791367975</v>
+        <v>0.7409604360283408</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.8712590563846657</v>
+        <v>0.755143269133051</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.8260547374084214</v>
+        <v>0.8152833391624339</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.8191740957998258</v>
+        <v>0.8123427054387157</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.8664537123365691</v>
+        <v>0.7402348946521846</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.8699282578463851</v>
+        <v>0.7538826289292654</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.8691292742297092</v>
+        <v>0.7479846270420578</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.057420163828829</v>
+        <v>1.085030700548752</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.063070031153933</v>
+        <v>1.093833933225648</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.041413656495149</v>
+        <v>1.146402083072458</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.041132616883435</v>
+        <v>1.103925761315102</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.057139408785661</v>
+        <v>1.083425652559222</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.061970836754575</v>
+        <v>1.091727601242429</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.0420991585883</v>
+        <v>1.149342511169664</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.041389887110309</v>
+        <v>1.106704714902531</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.041273136689292</v>
+        <v>1.12516392219378</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.8749710552522225</v>
+        <v>0.8817864287482745</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.8717243465122358</v>
+        <v>0.8835119824712931</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.9029159284492693</v>
+        <v>0.8494385873371667</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9070962213571593</v>
+        <v>0.8336221082796781</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.873255016728533</v>
+        <v>0.8832988837527217</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.8699389999642136</v>
+        <v>0.8868569531953938</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.9029306845816474</v>
+        <v>0.850783432674954</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.9059344902327143</v>
+        <v>0.8343254599191331</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.9050012476293207</v>
+        <v>0.8414560305213432</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.028365737610468</v>
+        <v>1.042013783205394</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.030065271300113</v>
+        <v>1.046242710386659</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.028376065708308</v>
+        <v>1.065265378596191</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.029942083223769</v>
+        <v>1.065537736368896</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.028166823409939</v>
+        <v>1.04031903077404</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.029858114104291</v>
+        <v>1.043424995927316</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.028548360890206</v>
+        <v>1.064488811038744</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.030248798380641</v>
+        <v>1.065145621924797</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.029159074466039</v>
+        <v>1.065401557482544</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.899790254622261</v>
+        <v>0.9188336125991633</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8979329754890401</v>
+        <v>0.9243679711998556</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9285371301640235</v>
+        <v>0.9048775183339409</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9342565719090021</v>
+        <v>0.8882558142433946</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.897851836576569</v>
+        <v>0.9189126386294226</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.8959137378889179</v>
+        <v>0.925368712776016</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.9287078756239252</v>
+        <v>0.9056494446996226</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9333379199738328</v>
+        <v>0.8886781108932577</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9313880706724184</v>
+        <v>0.8964896276653109</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.017472043556237</v>
+        <v>1.019481794137184</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.016203994291859</v>
+        <v>1.019762825432865</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.01193384274573</v>
+        <v>1.02787879491953</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.009791038641573</v>
+        <v>1.031637132533834</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.017643958215826</v>
+        <v>1.01895045505267</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.016446050476019</v>
+        <v>1.018808293106204</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.012104239255073</v>
+        <v>1.027528283384648</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.009837431827563</v>
+        <v>1.031774963168536</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.010862440693652</v>
+        <v>1.029757963726682</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9155114291424988</v>
+        <v>0.9367341398861448</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9124830762983366</v>
+        <v>0.9426360940504103</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9396181462589727</v>
+        <v>0.9301044130948658</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9434039141057069</v>
+        <v>0.9163576811625614</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9136934968651282</v>
+        <v>0.9363264512850995</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9106479804443977</v>
+        <v>0.9427733187572179</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.939949177948548</v>
+        <v>0.9305804192604632</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9425195681336552</v>
+        <v>0.9169158251355748</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9415072245874688</v>
+        <v>0.9231798755830302</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.02208850481706</v>
+        <v>1.017970118126953</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.022752746319167</v>
+        <v>1.015049419973323</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.010584418413573</v>
+        <v>1.019150928724236</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.007902259306105</v>
+        <v>1.020126117774301</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.023574287938595</v>
+        <v>1.018116963864861</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.024304651446388</v>
+        <v>1.014655571051685</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.010673902655512</v>
+        <v>1.018809752325652</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.008025910646753</v>
+        <v>1.019643394725073</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.009243338859839</v>
+        <v>1.019638523249268</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9357337077551867</v>
+        <v>0.9535673630334484</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9332445722538861</v>
+        <v>0.9568222205117873</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9495634578679635</v>
+        <v>0.9479167764161424</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9508589364653648</v>
+        <v>0.9348004037770248</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.935233170447849</v>
+        <v>0.953289843768745</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9327809621994559</v>
+        <v>0.9565902001158973</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9499821039751</v>
+        <v>0.9480844064658539</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9500841459703119</v>
+        <v>0.934927164618379</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9502107556161958</v>
+        <v>0.9413129010167213</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.01356880966958</v>
+        <v>1.013812692702792</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.014203296438943</v>
+        <v>1.010721923904625</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.008416420764935</v>
+        <v>1.017034153380406</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.004803745852222</v>
+        <v>1.023715791259934</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.014387567526767</v>
+        <v>1.013825351368366</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.014961373705894</v>
+        <v>1.010683627845263</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.008674400145167</v>
+        <v>1.016900819815521</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.004747033375066</v>
+        <v>1.024784359809129</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.006610083308578</v>
+        <v>1.02037497232017</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9484305003371271</v>
+        <v>0.9667386959904416</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9464997215636427</v>
+        <v>0.9670811955503695</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9575553834723866</v>
+        <v>0.9640637361774749</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9554266211374586</v>
+        <v>0.9569699350227026</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9486889008409397</v>
+        <v>0.9664694108147425</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9467366467606658</v>
+        <v>0.9668100538143611</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9582226288757276</v>
+        <v>0.9641078101894386</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9545942271203541</v>
+        <v>0.9580987358616094</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9564898178638072</v>
+        <v>0.9605037379601105</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.01517408306837</v>
+        <v>1.005685520328216</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.017614671693136</v>
+        <v>1.005510213744359</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.005247835531206</v>
+        <v>1.007844787488855</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.004175862246584</v>
+        <v>1.007624095853679</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.016047349797591</v>
+        <v>1.005666629253614</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.018385167763134</v>
+        <v>1.005492768747027</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.005355249222591</v>
+        <v>1.007661653879263</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.004347373022247</v>
+        <v>1.007183944450551</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.004711848888895</v>
+        <v>1.007734441671267</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9628220635338183</v>
+        <v>0.9722351084985685</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9631720034166308</v>
+        <v>0.9724100196460019</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9625804766368705</v>
+        <v>0.971626611313499</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9594163510940478</v>
+        <v>0.9642659655364043</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9639128434818269</v>
+        <v>0.9719460346507881</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9641425588388678</v>
+        <v>0.9721205178622641</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.963354149864084</v>
+        <v>0.971494470533404</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9587442043105299</v>
+        <v>0.9649816639581827</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9609958093631245</v>
+        <v>0.9679322951107295</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.005747883722323</v>
+        <v>1.004650547935732</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.005202574604426</v>
+        <v>1.004290229659715</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.004654557577867</v>
+        <v>1.006236031739295</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.003224308303496</v>
+        <v>1.005194654884169</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.005632602935891</v>
+        <v>1.004706226065238</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.005208386174356</v>
+        <v>1.004349727820713</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.004712288248306</v>
+        <v>1.006181564766728</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.003161496619831</v>
+        <v>1.005156618334997</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.003939432940682</v>
+        <v>1.005715343311732</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9683562528002978</v>
+        <v>0.9767565344754428</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9681829776213006</v>
+        <v>0.9765818819536912</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9670608628887079</v>
+        <v>0.9776857057003937</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9625098052013903</v>
+        <v>0.9692749944439155</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9693421817939659</v>
+        <v>0.9765202324130663</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9691641856124323</v>
+        <v>0.9763489775238954</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9678937523034451</v>
+        <v>0.9774998265235241</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9617752708717399</v>
+        <v>0.9699577060994852</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9647799670153734</v>
+        <v>0.9734621832792053</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.004808269878898</v>
+        <v>1.005103153609817</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.004988099866458</v>
+        <v>1.00528290689384</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.006630496194177</v>
+        <v>1.005038003810877</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.010240918599376</v>
+        <v>1.002943656947752</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.00491953017151</v>
+        <v>1.005188609487787</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.005104093160707</v>
+        <v>1.005364922945245</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.006732520392428</v>
+        <v>1.004960466930252</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.010497539256813</v>
+        <v>1.002970217873473</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.008435707396777</v>
+        <v>1.003990830379315</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9730123710026805</v>
+        <v>0.9817410731102632</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9730123710026805</v>
+        <v>0.9817410731102632</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.973472956259629</v>
+        <v>0.9826112900115527</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9723667897675593</v>
+        <v>0.9721282075155927</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9741108899038191</v>
+        <v>0.9815870145559803</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9741108899038191</v>
+        <v>0.9815870145559803</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9744101167285314</v>
+        <v>0.982348682087321</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9718715445339483</v>
+        <v>0.9728386918146542</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9729195585981057</v>
+        <v>0.9773416388750795</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.012953383330247</v>
+        <v>1.00865408430717</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.012953383330247</v>
+        <v>1.00865408430717</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.014269721930304</v>
+        <v>1.003104202159745</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.026183514398258</v>
+        <v>1.003153350967718</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.01334021049971</v>
+        <v>1.008622382907214</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.01334021049971</v>
+        <v>1.008622382907214</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.014724238786842</v>
+        <v>1.003075667611871</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.026678167528202</v>
+        <v>1.003161993140879</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.020226618164281</v>
+        <v>1.003128776563731</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.985616173229351</v>
+        <v>0.9902371431247707</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.985616173229351</v>
+        <v>0.9902371431247707</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9873641446521245</v>
+        <v>0.9856615141001961</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.997826769607826</v>
+        <v>0.9751936689395079</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9871057342251963</v>
+        <v>0.990050633652231</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9871057342251963</v>
+        <v>0.990050633652231</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9887575639635574</v>
+        <v>0.9853700601123814</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9977992964149177</v>
+        <v>0.9759148010853534</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9925678863507175</v>
+        <v>0.980399650705238</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.000978258370328</v>
+        <v>1.002399955893168</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.000978258370328</v>
+        <v>1.002399955893168</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.000801141235055</v>
+        <v>1.002715666683176</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.000966486687516</v>
+        <v>1.002464758673244</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.00093927032441</v>
+        <v>1.002318213945138</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.00093927032441</v>
+        <v>1.002318213945138</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.000793565937498</v>
+        <v>1.002686287784224</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.00093681010059</v>
+        <v>1.002468675219312</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.000883813961285</v>
+        <v>1.00259021267821</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9865803605007428</v>
+        <v>0.9926136685920469</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9865803605007428</v>
+        <v>0.9926136685920469</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9881551627824197</v>
+        <v>0.9883382422349264</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9987911558970985</v>
+        <v>0.9775972859931193</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9880328933484095</v>
+        <v>0.9923457828375559</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9880328933484095</v>
+        <v>0.9923457828375559</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.989542208286763</v>
+        <v>0.9880170476678007</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9987340448741605</v>
+        <v>0.9783240177709525</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9934446924535447</v>
+        <v>0.9829384223224605</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.001419991109993</v>
+        <v>1.006719448012796</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.001419991109993</v>
+        <v>1.006719448012796</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.000319047472052</v>
+        <v>1.011136461814685</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.000424845733249</v>
+        <v>1.022409262012254</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.001368762508648</v>
+        <v>1.006983800674491</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.001368762508648</v>
+        <v>1.006983800674491</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.000312091916994</v>
+        <v>1.011461754115327</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.000420905983094</v>
+        <v>1.021606793383593</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.00037194660265</v>
+        <v>1.016772861913469</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9879812958419472</v>
+        <v>0.9992834845349416</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9879812958419472</v>
+        <v>0.9992834845349416</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9884704311891011</v>
+        <v>0.9993448333295685</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9992154880580879</v>
+        <v>0.9995045197174077</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9893852757301356</v>
+        <v>0.9992761279850648</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9893852757301356</v>
+        <v>0.9992761279850648</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9898510364114932</v>
+        <v>0.999341456129921</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9991544180091675</v>
+        <v>0.9994624626851361</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9938139167436305</v>
+        <v>0.9994246701448828</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.000712639686838</v>
+        <v>1.000294761369939</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.000712639686838</v>
+        <v>1.000294761369939</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.000259120936305</v>
+        <v>1.000200470281219</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1.000380118029014</v>
+        <v>1.000102599126304</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.00070253016754</v>
+        <v>1.000288107233345</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.00070253016754</v>
+        <v>1.000288107233345</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1.000274966594298</v>
+        <v>1.000191397532875</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1.000420119645629</v>
+        <v>1.000112654137724</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.000319619482659</v>
+        <v>1.000151534703761</v>
       </c>
     </row>
     <row r="17">
@@ -7663,62 +7663,62 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.988685370523218</v>
+        <v>0.9995780347038009</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.988685370523218</v>
+        <v>0.9995780347038009</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9887265645727402</v>
+        <v>0.9995451722693403</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.9995953078799688</v>
+        <v>0.9996070680078674</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9900803487336556</v>
+        <v>0.9995640266656466</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9900803487336556</v>
+        <v>0.9995640266656466</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9901232123798376</v>
+        <v>0.9995327276191236</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9995741824091905</v>
+        <v>0.9995750562670574</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9941312303767343</v>
+        <v>0.999576119180427</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.000233749772377</v>
+        <v>1.000097564224578</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.000233749772377</v>
+        <v>1.000097564224578</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.00018173132609</v>
+        <v>1.000130444820243</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1.00022096856227</v>
+        <v>1.000093949861368</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1.00022096856227</v>
+        <v>1.000093949861368</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1.000168186104748</v>
+        <v>1.000125266481824</v>
       </c>
       <c r="U17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.000090865663045</v>
+        <v>1.000065222410122</v>
       </c>
     </row>
     <row r="18">
@@ -7727,62 +7727,62 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.98891647550353</v>
+        <v>0.9996755577596617</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.98891647550353</v>
+        <v>0.9996755577596617</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.98890624716246</v>
+        <v>0.9996755577596617</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>0.9995953078799688</v>
+        <v>0.9996070680078674</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9902991253648475</v>
+        <v>0.9996579355673803</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9902991253648475</v>
+        <v>0.9996579355673803</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9902897373461486</v>
+        <v>0.9996579355673803</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>0.9995741824091905</v>
+        <v>0.9995750562670574</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9942220483460389</v>
+        <v>0.9996413117106321</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1.000064976121699</v>
+        <v>1</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1.000064976121699</v>
+        <v>1</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1.000075319878448</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="22" t="n">
-        <v>0.9998811175725808</v>
+        <v>1</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>1.000056883671736</v>
+        <v>1</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>1.000056883671736</v>
+        <v>1</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1.000066364283692</v>
+        <v>1</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>0.9998897229080485</v>
+        <v>1</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>0.9999782187255143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -7791,62 +7791,62 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9889807314607926</v>
+        <v>0.9996755577596617</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9889807314607926</v>
+        <v>0.9996755577596617</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9889807314607926</v>
+        <v>0.9996755577596617</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>0.9994764735633311</v>
+        <v>0.9996070680078674</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9903554572152152</v>
+        <v>0.9996579355673803</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9903554572152152</v>
+        <v>0.9996579355673803</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9903554572152152</v>
+        <v>0.9996579355673803</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>0.9994639522751645</v>
+        <v>0.9995750562670574</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.9942009024936744</v>
+        <v>0.9996413117106321</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
         <v/>
       </c>
       <c r="N19" s="22" t="n">
-        <v>1.010793873826892</v>
+        <v>1.00008804670497</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>1.010793873826892</v>
+        <v>1.00008804670497</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>1.010793873826892</v>
+        <v>1.00008804670497</v>
       </c>
       <c r="Q19" s="22" t="n">
-        <v>1.000140477131138</v>
+        <v>1.000091505286887</v>
       </c>
       <c r="R19" s="22" t="n">
-        <v>1.009390865059929</v>
+        <v>1.000091665417358</v>
       </c>
       <c r="S19" s="22" t="n">
-        <v>1.009390865059929</v>
+        <v>1.000091665417358</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1.009390865059929</v>
+        <v>1.000091665417358</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>1.000150898046281</v>
+        <v>1.000100066679817</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1.005467175479015</v>
+        <v>1.000089775995928</v>
       </c>
     </row>
     <row r="20">
@@ -7855,62 +7855,62 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>0.9996556646934076</v>
+        <v>0.9997635758985612</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>0.9996556646934076</v>
+        <v>0.9997635758985612</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>0.9996556646934076</v>
+        <v>0.9997635758985612</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>0.9996168771509769</v>
+        <v>0.9996985373393995</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>0.9996557516752882</v>
+        <v>0.9997495696292593</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>0.9996557516752882</v>
+        <v>0.9997495696292593</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>0.9996557516752882</v>
+        <v>0.9997495696292593</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>0.9996147694328907</v>
+        <v>0.999675080424166</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>0.9996362705459371</v>
+        <v>0.9997310555611923</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
         <v/>
       </c>
       <c r="N20" s="22" t="n">
-        <v>1.000048942821134</v>
+        <v>1.000181784450263</v>
       </c>
       <c r="O20" s="22" t="n">
-        <v>1.000048942821134</v>
+        <v>1.000181784450263</v>
       </c>
       <c r="P20" s="22" t="n">
-        <v>1.000048942821134</v>
+        <v>1.000181784450263</v>
       </c>
       <c r="Q20" s="22" t="n">
-        <v>1.000019216671831</v>
+        <v>1.000228422093129</v>
       </c>
       <c r="R20" s="22" t="n">
-        <v>1.000052864039923</v>
+        <v>1.000193827508371</v>
       </c>
       <c r="S20" s="22" t="n">
-        <v>1.000052864039923</v>
+        <v>1.000193827508371</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1.000052864039923</v>
+        <v>1.000193827508371</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>1.00001956463971</v>
+        <v>1.000249466855312</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1.000034079746482</v>
+        <v>1.000205103271696</v>
       </c>
     </row>
     <row r="21">
@@ -7919,62 +7919,62 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>0.9997045906618001</v>
+        <v>0.999945317370599</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>0.9997045906618001</v>
+        <v>0.999945317370599</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>0.9997045906618001</v>
+        <v>0.999945317370599</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>0.9996360864604619</v>
+        <v>0.9999268905717964</v>
       </c>
       <c r="F21" s="34" t="n">
-        <v>0.999708597516854</v>
+        <v>0.9999433485973361</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>0.999708597516854</v>
+        <v>0.9999433485973361</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>0.999708597516854</v>
+        <v>0.9999433485973361</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>0.9996343265357033</v>
+        <v>0.9999244662228131</v>
       </c>
       <c r="J21" s="34" t="n">
-        <v>0.9996703373875376</v>
+        <v>0.9999361038863055</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
         <v/>
       </c>
       <c r="N21" s="22" t="n">
-        <v>1.000233371832218</v>
+        <v>1.000054685619755</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>1.000233371832218</v>
+        <v>1.000054685619755</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>1.000233371832218</v>
+        <v>1.000054685619755</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>1.000301916965009</v>
+        <v>1.000073114773583</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>1.000222944143051</v>
+        <v>1.000056654612227</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>1.000222944143051</v>
+        <v>1.000056654612227</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1.000222944143051</v>
+        <v>1.000056654612227</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1.000297258857401</v>
+        <v>1.000075539482969</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1.000267644398613</v>
+        <v>1.000063900196669</v>
       </c>
     </row>
     <row r="22">
@@ -7983,62 +7983,62 @@
         <v/>
       </c>
       <c r="B22" s="34" t="n">
-        <v>0.9999378935537994</v>
+        <v>1</v>
       </c>
       <c r="C22" s="34" t="n">
-        <v>0.9999378935537994</v>
+        <v>1</v>
       </c>
       <c r="D22" s="34" t="n">
-        <v>0.9999378935537994</v>
+        <v>1</v>
       </c>
       <c r="E22" s="34" t="n">
-        <v>0.9999378935537994</v>
+        <v>1</v>
       </c>
       <c r="F22" s="34" t="n">
-        <v>0.999931476693428</v>
+        <v>1</v>
       </c>
       <c r="G22" s="34" t="n">
-        <v>0.999931476693428</v>
+        <v>1</v>
       </c>
       <c r="H22" s="34" t="n">
-        <v>0.999931476693428</v>
+        <v>1</v>
       </c>
       <c r="I22" s="34" t="n">
-        <v>0.999931476693428</v>
+        <v>1</v>
       </c>
       <c r="J22" s="34" t="n">
-        <v>0.9999378935537994</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <f>+M21+1</f>
         <v/>
       </c>
       <c r="N22" s="22" t="n">
-        <v>1.000062110303651</v>
+        <v>1</v>
       </c>
       <c r="O22" s="22" t="n">
-        <v>1.000062110303651</v>
+        <v>1</v>
       </c>
       <c r="P22" s="22" t="n">
-        <v>1.000062110303651</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="22" t="n">
-        <v>1.000062110303651</v>
+        <v>1</v>
       </c>
       <c r="R22" s="22" t="n">
-        <v>1.000068528002337</v>
+        <v>1</v>
       </c>
       <c r="S22" s="22" t="n">
-        <v>1.000068528002337</v>
+        <v>1</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>1.000068528002337</v>
+        <v>1</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>1.000068528002337</v>
+        <v>1</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>1.000062110303651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -8186,7 +8186,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+      <selection pane="bottomLeft" activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45322</v>
+        <v>45596</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>243259.58</v>
+        <v>230460.83</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>851027.3731999999</v>
+        <v>786217.0743999999</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>18950.49</v>
+        <v>14825</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>137967.14</v>
+        <v>83769.31</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>194097.68</v>
+        <v>153423.72</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>214818.74</v>
+        <v>180343.16</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>222057.38</v>
+        <v>196899.36</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>229343.97</v>
+        <v>207080.27</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>235769.56</v>
+        <v>213663.35</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>236715.8</v>
+        <v>215165.52</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>238115.8</v>
+        <v>227042.15</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>239765.8</v>
+        <v>227442.15</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>240315.8</v>
+        <v>227899.33</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>240965.8</v>
+        <v>228599.63</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>241365.85</v>
+        <v>230259.97</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>241656.72</v>
+        <v>230359.97</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>242909.58</v>
+        <v>230409.97</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>242959.58</v>
+        <v>230409.97</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>243059.58</v>
+        <v>230409.97</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>243059.58</v>
+        <v>230409.97</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>243159.58</v>
+        <v>230409.97</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>243209.58</v>
+        <v>230460.83</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>243209.58</v>
+        <v>230460.83</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>243259.58</v>
+        <v>230460.83</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>243259.58</v>
+        <v>230460.83</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>243259.58</v>
+        <v>230460.83</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>304448.58</v>
+        <v>234693.39</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>856436.5909000001</v>
+        <v>807805.1969</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>36200</v>
+        <v>7975</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>161056.28</v>
+        <v>95725.42</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>239715.61</v>
+        <v>154007.29</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>261503.4</v>
+        <v>179333.76</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>270680.53</v>
+        <v>187491.95</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>276599.66</v>
+        <v>194849.46</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>278749.66</v>
+        <v>196799.76</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>280399.66</v>
+        <v>213553.33</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>281374.66</v>
+        <v>215903.33</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>281974.66</v>
+        <v>216603.33</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>285939.76</v>
+        <v>219133.33</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>286741.5499999999</v>
+        <v>219383.33</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>287125.2999999999</v>
+        <v>234084.78</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>288100.58</v>
+        <v>234584.78</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>288100.58</v>
+        <v>234584.78</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>288150.58</v>
+        <v>234634.78</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>288250.58</v>
+        <v>234634.78</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>288350.58</v>
+        <v>234634.78</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>304348.58</v>
+        <v>234693.39</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>304348.58</v>
+        <v>234693.39</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>304448.58</v>
+        <v>234693.39</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>304448.58</v>
+        <v>234693.39</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>304448.58</v>
+        <v>234693.39</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>257361.25</v>
+        <v>228527.76</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>835106.8911</v>
+        <v>822468.9107</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>24475</v>
+        <v>28500.02</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>141951.38</v>
+        <v>94393.39</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>184577.14</v>
+        <v>155142.63</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>198947.12</v>
+        <v>191003.94</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>210457.84</v>
+        <v>203001.19</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>213869.85</v>
+        <v>210952.31</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>215694.85</v>
+        <v>217385.57</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>227694.85</v>
+        <v>221854.57</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>235846.66</v>
+        <v>222699.03</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>238447.21</v>
+        <v>225835.13</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>240664.28</v>
+        <v>226485.13</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>241329.28</v>
+        <v>226835.13</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>256096.25</v>
+        <v>228141.14</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>256096.25</v>
+        <v>228196.75</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>256196.25</v>
+        <v>228196.75</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>257296.25</v>
+        <v>228477.76</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>257346.25</v>
+        <v>228527.76</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>257396.25</v>
+        <v>228527.76</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>257396.25</v>
+        <v>228527.76</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>257361.25</v>
+        <v>228527.76</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>257361.25</v>
+        <v>228527.76</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>257361.25</v>
+        <v>228527.76</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>266482.41</v>
+        <v>220685.17</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>816477.4171000001</v>
+        <v>809777.0507</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>40450</v>
+        <v>21390</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>150937.11</v>
+        <v>99308.37</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>188393.55</v>
+        <v>168960.25</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>231463.33</v>
+        <v>188756.5</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>238388.43</v>
+        <v>193631.5</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>247622.26</v>
+        <v>200273.47</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>249423.75</v>
+        <v>204737.83</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>258626.11</v>
+        <v>206840.12</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>260041.23</v>
+        <v>211596.16</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>261537.24</v>
+        <v>212916.17</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>263217.29</v>
+        <v>213466.17</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>263867.41</v>
+        <v>219615.29</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>264367.41</v>
+        <v>220267.89</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>264417.41</v>
+        <v>220217.89</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>266067.41</v>
+        <v>220405.17</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>266067.41</v>
+        <v>220405.17</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>266232.41</v>
+        <v>220470.17</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>266282.41</v>
+        <v>220470.17</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>266332.41</v>
+        <v>220470.17</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>266332.41</v>
+        <v>220635.17</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>266482.41</v>
+        <v>220685.17</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>256893.55</v>
+        <v>273349.01</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>798222.4770999999</v>
+        <v>829805.5107</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>21800</v>
+        <v>24000</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>145144.47</v>
+        <v>144508.22</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>197530.01</v>
+        <v>197784.65</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>218271.59</v>
+        <v>208952.51</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>231349.41</v>
+        <v>253547.69</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>237303.55</v>
+        <v>261960.78</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>249028.55</v>
+        <v>264469.73</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>250683.5300000001</v>
+        <v>266885.61</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>251463.99</v>
+        <v>268152.76</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>253578.01</v>
+        <v>268752.76</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>254828.01</v>
+        <v>269833.81</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>255728.01</v>
+        <v>270358.81</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>256528.01</v>
+        <v>270458.81</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>256728.01</v>
+        <v>272296.74</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>256778.55</v>
+        <v>273144.67</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>256878.55</v>
+        <v>273284.01</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>256928.55</v>
+        <v>273349.01</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>256843.55</v>
+        <v>273349.01</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>256843.55</v>
+        <v>273349.01</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>256893.55</v>
+        <v>273349.01</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>188783.68</v>
+        <v>216587.29</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>791925.7257</v>
+        <v>800031.0838</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>17675</v>
+        <v>22750</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>129451.11</v>
+        <v>151657.04</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>158536.97</v>
+        <v>178966.57</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>166150.93</v>
+        <v>187867.56</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>170827.79</v>
+        <v>202515.83</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>173065.08</v>
+        <v>208995.87</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>176393.25</v>
+        <v>211345.87</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>178303.52</v>
+        <v>213273.47</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>185503.62</v>
+        <v>213523.47</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>187170.59</v>
+        <v>214498.47</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>187695.59</v>
+        <v>215107.2</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>188100.84</v>
+        <v>215157.2</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>188575.84</v>
+        <v>215510.04</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>188725.84</v>
+        <v>216276.45</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>188733.68</v>
+        <v>216457.29</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>188733.68</v>
+        <v>216522.29</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>188733.68</v>
+        <v>216522.29</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>188733.68</v>
+        <v>216522.29</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>188783.68</v>
+        <v>216587.29</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>269329.9</v>
+        <v>229269.41</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>790648.1082</v>
+        <v>809298.3138</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>34025.46</v>
+        <v>49486.46</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>145035.01</v>
+        <v>147572.89</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>204801.2</v>
+        <v>196119.13</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>213687.46</v>
+        <v>214278.64</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>236152.22</v>
+        <v>218578.64</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>242861.46</v>
+        <v>221937.01</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>245594.56</v>
+        <v>223737.86</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>250407.06</v>
+        <v>224441.06</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>253153.78</v>
+        <v>226308.63</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>265854.82</v>
+        <v>227041.02</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>266629.82</v>
+        <v>227293.64</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>268529.82</v>
+        <v>227508.64</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>269079.82</v>
+        <v>228271.29</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>269229.9</v>
+        <v>229269.41</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>269329.9</v>
+        <v>229269.41</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>269329.9</v>
+        <v>229269.41</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>269329.9</v>
+        <v>229269.41</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>269329.9</v>
+        <v>229269.41</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>219890.8</v>
+        <v>211935.17</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>773258.9781999999</v>
+        <v>800277.3304</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>7975</v>
+        <v>34198.72</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>127401.52</v>
+        <v>146591.42</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>161868.59</v>
+        <v>174403.09</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>170896.85</v>
+        <v>194574.91</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>179335.44</v>
+        <v>200487.4</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>173087.37</v>
+        <v>203993.04</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>176445.16</v>
+        <v>206380.92</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>193689.9</v>
+        <v>208819.14</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>195612.15</v>
+        <v>209537.03</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>216403.3</v>
+        <v>209640.93</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>218103.3</v>
+        <v>209991.64</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>218953.3</v>
+        <v>210654.49</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>219479.96</v>
+        <v>211617.17</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>219611.16</v>
+        <v>211782.85</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>219840.8</v>
+        <v>211935.17</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>219890.8</v>
+        <v>211935.17</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>219890.8</v>
+        <v>211935.17</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>208459.36</v>
+        <v>192394.08</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>780154.7744</v>
+        <v>804447.0804</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>16390</v>
+        <v>34530.82</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>111047.01</v>
+        <v>129070.95</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>150367.7</v>
+        <v>148774.05</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>176948.51</v>
+        <v>173275.01</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>186093.58</v>
+        <v>183959.65</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>196779.04</v>
+        <v>186797.59</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>201063.17</v>
+        <v>188608.1</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>202529.45</v>
+        <v>189733.1</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>204130.36</v>
+        <v>189733.1</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>205944.19</v>
+        <v>190334.38</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>206994.26</v>
+        <v>191170.46</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>207394.26</v>
+        <v>191768.19</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>208194.26</v>
+        <v>191968.76</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>208244.26</v>
+        <v>192134.08</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>208244.26</v>
+        <v>192329.08</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>208459.36</v>
+        <v>192394.08</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>230409.97</v>
+        <v>227481.84</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>786217.0743999999</v>
+        <v>796110.8903999999</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>14825</v>
+        <v>52842.75</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>83769.31</v>
+        <v>145359.08</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>153423.72</v>
+        <v>173830.95</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>180343.16</v>
+        <v>180957.09</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>196899.36</v>
+        <v>185272.16</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>207080.27</v>
+        <v>195987.16</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>213663.35</v>
+        <v>198215.52</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>215165.52</v>
+        <v>204286.13</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>227042.15</v>
+        <v>206149.15</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>227442.15</v>
+        <v>207543.89</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>227899.33</v>
+        <v>209833.85</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>228599.63</v>
+        <v>212890.9</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>230259.97</v>
+        <v>213512.83</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>230359.97</v>
+        <v>213982.49</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>230409.97</v>
+        <v>227481.84</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>234584.78</v>
+        <v>194648.4099999999</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>807805.1969</v>
+        <v>788546.057</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>7975</v>
+        <v>28243.6</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>95725.42</v>
+        <v>128438.49</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>154007.29</v>
+        <v>169289.84</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>179333.76</v>
+        <v>173654.08</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>187491.95</v>
+        <v>180367.71</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>194849.46</v>
+        <v>185525.4</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>196799.76</v>
+        <v>187040.45</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>213553.33</v>
+        <v>187478.04</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>215903.33</v>
+        <v>189305.81</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>216603.33</v>
+        <v>191258.99</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>219133.33</v>
+        <v>192443.5</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>219383.33</v>
+        <v>193103.33</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>234084.78</v>
+        <v>193806.2899999999</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>234584.78</v>
+        <v>194648.4099999999</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>228091.14</v>
+        <v>195488.9</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>822468.9107</v>
+        <v>823535.4284999999</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>28500.02</v>
+        <v>47025</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>94343.39</v>
+        <v>132242.14</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>155092.63</v>
+        <v>164529.46</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>190953.94</v>
+        <v>178059.77</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>202951.19</v>
+        <v>182678.85</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>210902.31</v>
+        <v>183903.85</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>217335.57</v>
+        <v>186015.31</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>221804.57</v>
+        <v>190295.74</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>222649.03</v>
+        <v>191933.96</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>225785.13</v>
+        <v>193341.76</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>226435.13</v>
+        <v>194168.13</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>226785.13</v>
+        <v>194918.9</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>228091.14</v>
+        <v>195488.9</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>219615.29</v>
+        <v>205517.72</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>809777.0507</v>
+        <v>877556.8785000001</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>21390</v>
+        <v>40850.05</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>99308.37</v>
+        <v>123031.18</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>168960.25</v>
+        <v>181998.5</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>188756.5</v>
+        <v>189818.33</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>193631.5</v>
+        <v>193058.33</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>200273.47</v>
+        <v>194625.87</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>204737.83</v>
+        <v>198710.28</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>206840.12</v>
+        <v>201748.83</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>211596.16</v>
+        <v>203502.79</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>212916.17</v>
+        <v>204244.58</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>213466.17</v>
+        <v>205186.27</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>219615.29</v>
+        <v>205517.72</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>269833.81</v>
+        <v>215196.07</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>829805.5107</v>
+        <v>906397.4716000002</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>144508.22</v>
+        <v>149877.54</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>197784.65</v>
+        <v>179247.77</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>208952.51</v>
+        <v>182597.47</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>253547.69</v>
+        <v>189444.21</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>261960.78</v>
+        <v>195878.96</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>264469.73</v>
+        <v>200989.37</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>266885.61</v>
+        <v>204129.99</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>268152.76</v>
+        <v>212885.6</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>268752.76</v>
+        <v>213788.25</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>269833.81</v>
+        <v>215196.07</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>214498.47</v>
+        <v>256688.84</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>800031.0838</v>
+        <v>949580.9315999999</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>22750</v>
+        <v>46887.2</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>151657.04</v>
+        <v>183438.09</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>178966.57</v>
+        <v>188603.6</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>187867.56</v>
+        <v>204203.41</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>202515.83</v>
+        <v>225809.49</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>208995.87</v>
+        <v>240536.98</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>211345.87</v>
+        <v>246013.82</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>213273.47</v>
+        <v>248598.44</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>213523.47</v>
+        <v>253228.06</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>214498.47</v>
+        <v>256688.84</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>226308.63</v>
+        <v>246592.79</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>809298.3138</v>
+        <v>913172.7015999999</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>49486.46</v>
+        <v>31275</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>147572.89</v>
+        <v>46898.78</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>196119.13</v>
+        <v>81268.35000000001</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>214278.64</v>
+        <v>172574.77</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>218578.64</v>
+        <v>211618.47</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>221937.01</v>
+        <v>231152.69</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>223737.86</v>
+        <v>238576.11</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>224441.06</v>
+        <v>243467.19</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>226308.63</v>
+        <v>246592.79</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>208819.14</v>
+        <v>300220.42</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>800277.3304</v>
+        <v>936573.4136</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>34198.72</v>
+        <v>1607.52</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>146591.42</v>
+        <v>23359.98</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>174403.09</v>
+        <v>118219.13</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>194574.91</v>
+        <v>220346.51</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>200487.4</v>
+        <v>274087.27</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>203993.04</v>
+        <v>284257.05</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>206380.92</v>
+        <v>292065.0700000001</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>208819.14</v>
+        <v>300220.42</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>188608.1</v>
+        <v>271159.61</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>804447.0804</v>
+        <v>914738.5136000001</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>34530.82</v>
+        <v>225</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>129070.95</v>
+        <v>59951.68</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>148774.05</v>
+        <v>183913.84</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>173275.01</v>
+        <v>235070.92</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>183959.65</v>
+        <v>250856.19</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>186797.59</v>
+        <v>261802.29</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>188608.1</v>
+        <v>271159.61</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>195987.16</v>
+        <v>301297.76</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>796110.8903999999</v>
+        <v>808357.6335999999</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>52842.75</v>
+        <v>19650</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>145359.08</v>
+        <v>100056.83</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>173830.95</v>
+        <v>188882.73</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>180957.09</v>
+        <v>240924.73</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>185272.16</v>
+        <v>270295.48</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>195987.16</v>
+        <v>301297.76</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>180367.71</v>
+        <v>179783.42</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>788546.057</v>
+        <v>727815.452</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>28243.6</v>
+        <v>13800</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>128438.49</v>
+        <v>72025.13</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>169289.84</v>
+        <v>123793.48</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>173654.08</v>
+        <v>158952.02</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>180367.71</v>
+        <v>179783.42</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>178059.77</v>
+        <v>146151.66</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>823535.4285</v>
+        <v>664972.742</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>47025</v>
+        <v>18700</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>132242.14</v>
+        <v>53468.5</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>164529.46</v>
+        <v>96030.36</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>178059.77</v>
+        <v>146151.66</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>181998.5</v>
+        <v>89758.64999999999</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>877556.8785000001</v>
+        <v>606351.2999999999</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>30</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>40850.05</v>
+        <v>11550</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>123031.18</v>
+        <v>53250.5</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>181998.5</v>
+        <v>89758.64999999999</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>149877.54</v>
+        <v>50859.07</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>906397.4716000002</v>
+        <v>548702.7899999999</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>30</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>8000</v>
+        <v>13716.33</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>149877.54</v>
+        <v>50859.07</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>46887.2</v>
+        <v>13850</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>949580.9315999999</v>
+        <v/>
       </c>
       <c r="J31" s="20" t="n">
         <v>30</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>46887.2</v>
+        <v>13850</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
@@ -11800,7 +11800,21 @@
       <c r="H35" s="26" t="n">
         <v>0.075</v>
       </c>
-      <c r="J35" s="25" t="n"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Previous Quarter</t>
+        </is>
+      </c>
+      <c r="J35" s="25" t="inlineStr">
+        <is>
+          <t>Liability Change</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Annzd Prem Change</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="C36" s="22" t="n"/>
@@ -11811,7 +11825,10 @@
         <v/>
       </c>
       <c r="I36" s="28" t="n"/>
-      <c r="J36" s="29" t="n"/>
+      <c r="J36" s="29">
+        <f>(H36-I36)/I36</f>
+        <v/>
+      </c>
       <c r="K36" s="29" t="n"/>
     </row>
     <row r="37">

--- a/Process Results/Unified_IBNP_XCH.xlsx
+++ b/Process Results/Unified_IBNP_XCH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Completion Factors" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Plot Patterns" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Completion Factors" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Plot Patterns" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -405,14 +405,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -435,16 +435,16 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -485,7 +485,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -496,7 +496,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -605,7 +605,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -616,7 +616,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -725,7 +725,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -736,7 +736,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -845,7 +845,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -856,7 +856,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -965,7 +965,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -976,7 +976,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1085,7 +1085,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -1098,7 +1098,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1207,7 +1207,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -1220,7 +1220,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1329,7 +1329,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -1342,7 +1342,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1451,7 +1451,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -1464,7 +1464,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1582,8 +1582,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1595,9 +1595,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -1633,7 +1633,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1650,16 +1650,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill/>
-          <a:ln>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -1688,16 +1688,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -1722,10 +1722,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -1740,14 +1740,14 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -1770,16 +1770,16 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -1820,7 +1820,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1831,7 +1831,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1940,7 +1940,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1951,7 +1951,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2060,7 +2060,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -2071,7 +2071,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2180,7 +2180,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -2191,7 +2191,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2300,7 +2300,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -2311,7 +2311,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2420,7 +2420,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -2433,7 +2433,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2542,7 +2542,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -2555,7 +2555,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2664,7 +2664,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -2677,7 +2677,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2786,7 +2786,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -2799,7 +2799,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2917,8 +2917,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2930,9 +2930,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -2968,7 +2968,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -2985,16 +2985,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill/>
-          <a:ln>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -3023,16 +3023,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -3057,10 +3057,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -3093,7 +3093,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>0</col>
@@ -3113,9 +3113,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3140,9 +3140,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3513,12 +3513,12 @@
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.09105537195165264</v>
+        <v>0.0941642399105813</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04506025644863915</v>
+        <v>0.08094846718190403</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1008120211068073</v>
+        <v>0.06893791507542513</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.06028666155956117</v>
+        <v>0.08705765573122971</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.326348134476395</v>
+        <v>0.4218250551679508</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2261167289122021</v>
+        <v>0.3628903049592054</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4173040414719597</v>
+        <v>0.2966550954401903</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2671401478884529</v>
+        <v>0.3901445815576407</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.565230690809579</v>
+        <v>0.6263533331167056</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4999235980668933</v>
+        <v>0.5230862061848089</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6542982008916016</v>
+        <v>0.5139460828985577</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5305750793820083</v>
+        <v>0.5700809438838759</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.755143269133051</v>
+        <v>0.7970274565986782</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7409604360283408</v>
+        <v>0.7435029913066258</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.8077204003590118</v>
+        <v>0.73424041534564</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.7479846270420578</v>
+        <v>0.7693353921571509</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8336221082796781</v>
+        <v>0.8584395402562182</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8494385873371667</v>
+        <v>0.8487257128181411</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8835119824712931</v>
+        <v>0.8401187206168497</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8414560305213432</v>
+        <v>0.8535549905355311</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8882558142433946</v>
+        <v>0.9345254409013496</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9048775183339409</v>
+        <v>0.9169387447225625</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9243679711998556</v>
+        <v>0.9044739592953727</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8964896276653109</v>
+        <v>0.9256485665183105</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9163576811625614</v>
+        <v>0.9503934182663952</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9301044130948658</v>
+        <v>0.9369550851768103</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9426360940504103</v>
+        <v>0.9280146666376925</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9231798755830302</v>
+        <v>0.9436264097899465</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9348004037770248</v>
+        <v>0.962589341155463</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9479167764161424</v>
+        <v>0.9494018298299564</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9568222205117873</v>
+        <v>0.9425316756983324</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9413129010167213</v>
+        <v>0.9559501066072421</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9569699350227026</v>
+        <v>0.9731993461236673</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9640637361774749</v>
+        <v>0.968005854588194</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9670811955503695</v>
+        <v>0.9595319219694592</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9605037379601105</v>
+        <v>0.9705956530341537</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9642659655364043</v>
+        <v>0.9830910781121213</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.971626611313499</v>
+        <v>0.9788343812675525</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9724100196460019</v>
+        <v>0.9726823555660373</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9679322951107295</v>
+        <v>0.9809581119129637</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9692749944439155</v>
+        <v>0.9884835896899612</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9776857057003937</v>
+        <v>0.9845464895354122</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9765818819536912</v>
+        <v>0.9798590180956754</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9734621832792053</v>
+        <v>0.9865111114521913</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9721282075155927</v>
+        <v>0.9936166755634656</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9826112900115527</v>
+        <v>0.9897706420656582</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9817410731102632</v>
+        <v>0.9850977800121838</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9773416388750795</v>
+        <v>0.9916899298470692</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9751936689395079</v>
+        <v>0.9965191510629231</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9856615141001961</v>
+        <v>0.9931619511712534</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9902371431247707</v>
+        <v>0.9883026328404521</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.980399650705238</v>
+        <v>0.9948377188061467</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9775972859931193</v>
+        <v>0.9989248380042393</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9883382422349264</v>
+        <v>0.9960589833572895</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9926136685920469</v>
+        <v>0.9908595493764764</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9829384223224605</v>
+        <v>0.9974898522372898</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9995045197174077</v>
+        <v>0.9991497599541449</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9993448333295685</v>
+        <v>0.9975638519356825</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9992834845349416</v>
+        <v>0.9979539265013133</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9994246701448828</v>
+        <v>0.9983561761339513</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9996070680078674</v>
+        <v>0.999383286408804</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9995451722693403</v>
+        <v>0.9984925878963798</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9995780347038009</v>
+        <v>0.9986703421129555</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.999576119180427</v>
+        <v>0.9989377386057627</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9996070680078674</v>
+        <v>0.9995497419562597</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9996755577596617</v>
+        <v>0.9988248176292914</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9996755577596617</v>
+        <v>0.9989242857426033</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9996413117106321</v>
+        <v>0.9991871483070944</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9996070680078674</v>
+        <v>0.999733993848774</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9996755577596617</v>
+        <v>0.9995061083090494</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9996755577596617</v>
+        <v>0.9995061083090494</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9996413117106321</v>
+        <v>0.9996200380910222</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4411,20 +4411,20 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9996985373393995</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9997635758985612</v>
+        <v>0.9999844060456748</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.9997635758985612</v>
+        <v>0.9999844060456748</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.9997310555611923</v>
+        <v>0.9999922029620441</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4449,20 +4449,20 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9999268905717964</v>
+        <v>1</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.999945317370599</v>
+        <v>1</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.999945317370599</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9999361038863055</v>
+        <v>1</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -4833,46 +4833,46 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>5.650543676222597</v>
+        <v>4.286459259293914</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.831502730534608</v>
+        <v>1.189722358921143</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.175458136460255</v>
+        <v>1.115662056217009</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.091803869911118</v>
+        <v>1.030386702992693</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.05170616095451</v>
+        <v>1.017485587622963</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.031789991388363</v>
+        <v>1.011705693488366</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.007030545949972</v>
+        <v>1.011814173519529</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.055197645050192</v>
+        <v>1.003437855361343</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.001761787403793</v>
+        <v>1.000495855076308</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.002010093555658</v>
+        <v>1.001672908052831</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1.003072847998281</v>
+        <v>1.00315655423235</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.007263091370708</v>
+        <v>1.004569947690173</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1.000434291726868</v>
+        <v>1.000782923238223</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1.00021705159972</v>
+        <v>1.000719227265097</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>1</v>
@@ -4884,10 +4884,10 @@
         <v>1</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1</v>
+        <v>1.000306697562278</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>1.000220736975922</v>
+        <v>1</v>
       </c>
       <c r="U38" s="4" t="n">
         <v>1</v>
@@ -4908,61 +4908,61 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>12.00318746081505</v>
+        <v>3.737847812475928</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.608844233851364</v>
+        <v>1.152529287186621</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.164449812732891</v>
+        <v>1.164703422772751</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.045491657566316</v>
+        <v>1.061668596628828</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.039241738111956</v>
+        <v>1.015428311877034</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.010009265614593</v>
+        <v>1.009693192996162</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.085130032678902</v>
+        <v>1.005965255172407</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.011004277011274</v>
+        <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1.00324219177166</v>
+        <v>1.003169350575146</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.011680337509123</v>
+        <v>1.004393059671903</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.001140857942514</v>
+        <v>1.003126947705013</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.067012612125087</v>
+        <v>1.001045985446111</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1.0021359782554</v>
+        <v>1.000861253570931</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1</v>
+        <v>1.001015000774524</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1.000213142557671</v>
+        <v>1.000337990530857</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000337876331856</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1.000249792464698</v>
+        <v>1.001636847633077</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>1</v>
+        <v>1.000083005599558</v>
       </c>
       <c r="U39" s="4" t="n">
         <v>1</v>
@@ -4983,58 +4983,58 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>3.312046447686703</v>
+        <v>2.7507856801548</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.643575148641234</v>
+        <v>1.195872662375133</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.231150587043677</v>
+        <v>1.040994656014939</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.062811531531758</v>
+        <v>1.023845818917623</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.039167849213101</v>
+        <v>1.057833837528531</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.030496276622901</v>
+        <v>1.011369928519807</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.020557942277401</v>
+        <v>1.030626310190039</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.003806367387428</v>
+        <v>1.009119659763489</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.014082234664426</v>
+        <v>1.006765683972017</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.002878205884089</v>
+        <v>1.01103361799762</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1.001545355317587</v>
+        <v>1.014568907733428</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1.005757529708913</v>
+        <v>1.002921355492414</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1.000243752617349</v>
+        <v>1.002199680459483</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1</v>
+        <v>1.06308623663553</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1.001231437345186</v>
+        <v>1.000444255242528</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1.000218839680501</v>
+        <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1</v>
+        <v>1.002922012154692</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1</v>
+        <v>1.000221206854477</v>
       </c>
       <c r="T40" s="4" t="n">
         <v>1</v>
@@ -5058,64 +5058,64 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>4.642747545582048</v>
+        <v>4.547525457094705</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.701369683139498</v>
+        <v>1.318061587301439</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.117165132035494</v>
+        <v>1.025779692390282</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.025826925165491</v>
+        <v>1.038660940186375</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.034302115100074</v>
+        <v>1.028595417660955</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.022291319963648</v>
+        <v>1.00816626726044</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.010268204952646</v>
+        <v>1.002339547408061</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.0229937983018</v>
+        <v>1.009749248498651</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.006238345724233</v>
+        <v>1.010317591414653</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.002583176280129</v>
+        <v>1.006193225217805</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1.028806063274569</v>
+        <v>1.003428694655834</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1.002971559949218</v>
+        <v>1.003640330801131</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>0.9997730036820165</v>
+        <v>1.004345163410331</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1.000850430453221</v>
+        <v>1.001263252034784</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1</v>
+        <v>1.000592782857169</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1.000294911412468</v>
+        <v>1</v>
       </c>
       <c r="R41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>1</v>
+        <v>1.000256397331355</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>1.000748400565936</v>
+        <v>1</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>1.000226618448908</v>
+        <v>1</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5133,58 +5133,58 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>6.021175833333333</v>
+        <v>2.811528761297183</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.368674044978202</v>
+        <v>1.244208436532379</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.056464745873858</v>
+        <v>1.082251394624639</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.213422561901745</v>
+        <v>1.025945548320374</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.033181489446818</v>
+        <v>1.006706858543046</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.009577578750529</v>
+        <v>1.011483198943188</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.009134807223496</v>
+        <v>1.023014882196879</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.004747914284326</v>
+        <v>1.008610168073348</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.00223753057772</v>
+        <v>1.00733596117558</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.004022470318072</v>
+        <v>1.004274804595437</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1.00194564202314</v>
+        <v>1.003867194970921</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1.000369878828805</v>
+        <v>1.002770809420136</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1.006795600409541</v>
+        <v>1.00228221107523</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1.003113992477471</v>
+        <v>1.003395534425517</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1.000510132597499</v>
+        <v>1.004757962513587</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>1.000237847797974</v>
+        <v>1.001625774262016</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>1</v>
+        <v>1.000252785455574</v>
       </c>
       <c r="S42" s="4" t="n">
-        <v>1</v>
+        <v>1.000303265885484</v>
       </c>
       <c r="T42" s="4" t="n">
         <v>1</v>
@@ -5208,58 +5208,58 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>6.666243516483515</v>
+        <v>3.011775505782734</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.180074264933563</v>
+        <v>1.479287608230694</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.049735489706262</v>
+        <v>1.042966453020217</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.077971258050086</v>
+        <v>1.017068952192341</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.031997696180096</v>
+        <v>1.008119514967316</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.011244241333573</v>
+        <v>1.020985956286284</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.009120594596904</v>
+        <v>1.015137515784287</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.001172203931413</v>
+        <v>1.008695097806217</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.004566242764788</v>
+        <v>1.003498217103052</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1.002837922340425</v>
+        <v>1.00461196741116</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.000232442242752</v>
+        <v>1.001615838483428</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1.001639917232609</v>
+        <v>1.002993568245252</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1.003556261230335</v>
+        <v>1.004846408200621</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1.000836152063713</v>
+        <v>1.006316290395401</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1.000300290186577</v>
+        <v>1.00014396855957</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>1</v>
+        <v>1.00031188697715</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>1.000300200039451</v>
+        <v>1.000239838256917</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5283,49 +5283,49 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>2.982086211056519</v>
+        <v>18.7346925</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.328964486634368</v>
+        <v>1.195961516315253</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.092594281853076</v>
+        <v>1.01868754071529</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.020067329156093</v>
+        <v>1.037496357424887</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.015364584572399</v>
+        <v>1.033966464322135</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.008114239260951</v>
+        <v>1.026089632087081</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.003142963823825</v>
+        <v>1.015625801503831</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.00832098190946</v>
+        <v>1.042892325620552</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.003236244238675</v>
+        <v>1.004240070723431</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.001112662372641</v>
+        <v>1.006585114008838</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.000945912960873</v>
+        <v>1.00524177788191</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.003352180383127</v>
+        <v>1.001987758366983</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1.004372516578848</v>
+        <v>1.003669504168041</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v>1.000229832792966</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1</v>
+        <v>1.000275965758371</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>1</v>
@@ -5358,52 +5358,52 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>4.286459259293914</v>
+        <v>3.911261282396902</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.189722358921143</v>
+        <v>1.028167096347424</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.115662056217009</v>
+        <v>1.082734087283404</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.030386702992693</v>
+        <v>1.105832569732732</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.017485587622963</v>
+        <v>1.065013833969947</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.011705693488366</v>
+        <v>1.02236278296292</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.011814173519529</v>
+        <v>1.010250115310848</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.003437855361343</v>
+        <v>1.018440971944817</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.000495855076308</v>
+        <v>1.013683680491647</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.001672908052831</v>
+        <v>1.019952980361912</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.00315655423235</v>
+        <v>1.002598386969402</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.004569947690173</v>
+        <v>1.005584803061846</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1.000782923238223</v>
+        <v>1.002457850837658</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1.000719227265097</v>
+        <v>1.000378385514525</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>1</v>
+        <v>1.000434978752044</v>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5433,49 +5433,49 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>3.737847812475928</v>
+        <v>1.499561310951239</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.152653250014817</v>
+        <v>1.732195805519888</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.164685709638206</v>
+        <v>2.123939118541636</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.061662902226928</v>
+        <v>1.226050366546468</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.01542696999043</v>
+        <v>1.092339426151012</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.009692362733374</v>
+        <v>1.032124584579661</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.005964749127954</v>
+        <v>1.02050718886594</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1</v>
+        <v>1.012841586889157</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.003169083307024</v>
+        <v>1.053052804835392</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.004392690379951</v>
+        <v>1.007930362058299</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1.003126685995315</v>
+        <v>1.009653796950192</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.001045898175292</v>
+        <v>1.004239327821429</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1.00086118178812</v>
+        <v>1.006146230092589</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1.001014916250152</v>
+        <v>1.000149848456383</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1.000337962413172</v>
+        <v>1.000430749764914</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5508,46 +5508,46 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>2.7507856801548</v>
+        <v>14.53168856375037</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.195872662375133</v>
+        <v>5.048768449288056</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.040994656014939</v>
+        <v>1.865641538987103</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.023845818917623</v>
+        <v>1.243899641206962</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.057833837528531</v>
+        <v>1.037156952976256</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.011369928519807</v>
+        <v>1.027505843567679</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.030626310190039</v>
+        <v>1.027960334028512</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.009119659763489</v>
+        <v>1.010590564252768</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.006765683972017</v>
+        <v>1.016561925765074</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.01103361799762</v>
+        <v>1.005837030005376</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.014568907733428</v>
+        <v>1.004222285161435</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.002921355492414</v>
+        <v>1.004931043334782</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1.002199680459483</v>
+        <v>1.001535188879885</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1.06308623663553</v>
+        <v>1.000160053593045</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5583,43 +5583,43 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>4.547525457094705</v>
+        <v>266.4519111111111</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.318061587301439</v>
+        <v>3.065293583098923</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.025779692390282</v>
+        <v>1.278089073540495</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.038660940186375</v>
+        <v>1.06720745639605</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.028595417660955</v>
+        <v>1.043669277304399</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.00816626726044</v>
+        <v>1.035963205007118</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.002339547408061</v>
+        <v>1.013392957954982</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.009749248498651</v>
+        <v>1.052103241375285</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.010317591414653</v>
+        <v>1.013425653838665</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.006193225217805</v>
+        <v>1.004825801920117</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.003428694655834</v>
+        <v>1.005829047878452</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1.003640330801131</v>
+        <v>1.001233272766688</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>1.004345163410331</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5658,40 +5658,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>2.812166719829878</v>
+        <v>5.089406106870229</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.244153036240944</v>
+        <v>1.886548448740951</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.082236397056187</v>
+        <v>1.275551680194594</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.025941176943001</v>
+        <v>1.122044820594955</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.006705757125141</v>
+        <v>1.114812122483378</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.011481325703622</v>
+        <v>1.02710145654994</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.023011170424628</v>
+        <v>1.008735011244659</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.008608810685935</v>
+        <v>1.012391101369138</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.00733481453725</v>
+        <v>1.005846832528398</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.0042741412926</v>
+        <v>1.008078947271476</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.003866597468905</v>
+        <v>1.005959348917775</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1.002924293129091</v>
+        <v>1.002530488976786</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>3.011775505782734</v>
+        <v>5.227732363636364</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.479287608230694</v>
+        <v>1.71914427837441</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.042966453020217</v>
+        <v>1.284513227501239</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.017068952192341</v>
+        <v>1.131078308277616</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.008119514967316</v>
+        <v>1.10541438996044</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.020985956286284</v>
+        <v>1.020016489526611</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.015291357850233</v>
+        <v>1.022149651288209</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.008693780281155</v>
+        <v>1.007619155596305</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.003645109730437</v>
+        <v>1.019493094552981</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.004610599703551</v>
+        <v>1.003410757850165</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1.001615361495679</v>
+        <v>1.003164739012413</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,34 +5808,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>18.7346925</v>
+        <v>2.85927807486631</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.195961516315253</v>
+        <v>1.794729420125868</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.01868754071529</v>
+        <v>1.520951685931513</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.037496357424887</v>
+        <v>1.082670841715325</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.033966464322135</v>
+        <v>1.059165733602761</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.026089632087081</v>
+        <v>1.028564936466698</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.015625801503831</v>
+        <v>1.012253862192279</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.042892325620552</v>
+        <v>1.022151231894138</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.004240070723431</v>
+        <v>1.005896916277993</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1.006585114008838</v>
+        <v>1.003348796026899</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>3.912327671518027</v>
+        <v>4.60608658008658</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.028159418799007</v>
+        <v>1.686239551280726</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.082712153956764</v>
+        <v>1.613701607819553</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.105806656215976</v>
+        <v>1.122712091452859</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.065220863835262</v>
+        <v>1.120006854254191</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.022769222428917</v>
+        <v>1.027663455146381</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.010505995151004</v>
+        <v>1.015182602743812</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.01862288435921</v>
+        <v>1.002467103617615</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1.013666652897787</v>
+        <v>1.003939584217332</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>1.499561310951239</v>
+        <v>3.719660655055161</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.732845715816062</v>
+        <v>1.315829272903568</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>2.123517580952487</v>
+        <v>1.408159277585361</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.226242225326448</v>
+        <v>1.259780032737951</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.092308672300674</v>
+        <v>1.032285160285982</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.03211478957913</v>
+        <v>1.021855727267406</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.020501130645478</v>
+        <v>1.007219862711637</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.012837869447625</v>
+        <v>1.008526948608041</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>14.53168856375037</v>
+        <v>3.888979061371841</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>5.060754760920172</v>
+        <v>1.189220264392425</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.863882013004156</v>
+        <v>1.683811259244318</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.243892040767971</v>
+        <v>1.208858914544686</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.037104167588666</v>
+        <v>1.162400680095338</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.027468166576695</v>
+        <v>1.018005843392335</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.027923058378737</v>
+        <v>1.014536439098397</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>266.4519111111111</v>
+        <v>4.002478474114442</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>3.067701188690625</v>
+        <v>1.453788578956799</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.278157859136648</v>
+        <v>1.625718385152968</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.067151096358495</v>
+        <v>1.137673706185531</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.043634960731884</v>
+        <v>1.044844909056402</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.035741933349781</v>
+        <v>1.009683194068943</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>5.091950636132315</v>
+        <v>7.516816091954023</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.887754489123831</v>
+        <v>1.668905427371274</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.275525454338785</v>
+        <v>1.534238883843393</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.121908406828971</v>
+        <v>1.043627842089924</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.114697737453841</v>
+        <v>1.028040790933192</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>5.21921231884058</v>
+        <v>3.441736526946108</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.718753996001118</v>
+        <v>2.224843676601075</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.28400962635512</v>
+        <v>1.136445909807007</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.131054641520127</v>
+        <v>1.043152180674469</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>2.85927807486631</v>
+        <v>6.555997958845921</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.796017468228957</v>
+        <v>1.298506633782275</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.521931814063803</v>
+        <v>1.182002397364746</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>4.6104329004329</v>
+        <v>4.802869146608315</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.685592623543441</v>
+        <v>1.258758714247756</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>3.707921142171412</v>
+        <v>2.571528753180662</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6569,7 +6569,7 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.1107792955131116</v>
+        <v>0.1067088092446292</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.1008120211068073</v>
+        <v>0.06893791507542513</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.04506025644863915</v>
+        <v>0.08094846718190403</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.09105537195165264</v>
+        <v>0.0941642399105813</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.02306051021672108</v>
+        <v>0.02104657420010011</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.01162916537413401</v>
+        <v>0.06574357867074174</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.003904181221301945</v>
+        <v>0.07227430482113076</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.08579612235686465</v>
+        <v>0.08498318549744691</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.06028666155956117</v>
+        <v>0.08705765573122971</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>4.221562608588345</v>
+        <v>4.017882626373744</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>4.139427390606906</v>
+        <v>4.303221168142659</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>5.018096804884718</v>
+        <v>4.482979327375446</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>3.584062395019098</v>
+        <v>4.479673553023074</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>16.91493771111243</v>
+        <v>16.54598291468891</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>27.7035765379489</v>
+        <v>4.523547482794664</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>47.9901176972591</v>
+        <v>4.815237825274912</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>3.725877372490207</v>
+        <v>4.643465286211633</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>4.301079599951908</v>
+        <v>4.481326440199259</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.4676617317439104</v>
+        <v>0.4287434707450254</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.4173040414719597</v>
+        <v>0.2966550954401903</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.2261167289122021</v>
+        <v>0.3628903049592054</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.326348134476395</v>
+        <v>0.4218250551679508</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.390067093902309</v>
+        <v>0.3482362571275888</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.3221694730147868</v>
+        <v>0.2973941998059468</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.1873621163217091</v>
+        <v>0.3480179663701577</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.3196658309368432</v>
+        <v>0.3946164717690786</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.2671401478884529</v>
+        <v>0.3901445815576407</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.466563229896606</v>
+        <v>1.455224042382478</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.567917239870696</v>
+        <v>1.732470100120617</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>2.210909385041593</v>
+        <v>1.441444422836295</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.731986890982098</v>
+        <v>1.484865172049397</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.700740739692522</v>
+        <v>1.688481029904276</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.934586950767629</v>
+        <v>1.713483987489671</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>2.536095754418024</v>
+        <v>1.515670549225267</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.733454695924505</v>
+        <v>1.594036341543702</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.971448138011846</v>
+        <v>1.463154797442846</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.6858554998053891</v>
+        <v>0.6239178066426698</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.6542982008916016</v>
+        <v>0.5139460828985577</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.4999235980668933</v>
+        <v>0.5230862061848089</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.565230690809579</v>
+        <v>0.6263533331167056</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.6634029978131253</v>
+        <v>0.5879903140848014</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.6232648584300904</v>
+        <v>0.5095801993397935</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.4751682677422624</v>
+        <v>0.5274805822285177</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.5541262357640799</v>
+        <v>0.6290329969716657</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.5305750793820083</v>
+        <v>0.5700809438838759</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.18491925914762</v>
+        <v>1.261529546739136</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.23448360282566</v>
+        <v>1.428633157790919</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.482147349902044</v>
+        <v>1.421377552142796</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.335991271194882</v>
+        <v>1.272488569084012</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.228941294884067</v>
+        <v>1.338406826121546</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.303366770083723</v>
+        <v>1.450735410581024</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.5578373913085</v>
+        <v>1.428396018832966</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.360488964919236</v>
+        <v>1.284229063671715</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.409069310548463</v>
+        <v>1.346933060613404</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.8126833907117221</v>
+        <v>0.787090747816403</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.8077204003590118</v>
+        <v>0.73424041534564</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.7409604360283408</v>
+        <v>0.7435029913066258</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.755143269133051</v>
+        <v>0.7970274565986782</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.8152833391624339</v>
+        <v>0.7869702500644498</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.8123427054387157</v>
+        <v>0.7392660397131754</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.7402348946521846</v>
+        <v>0.7534511636669095</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.7538826289292654</v>
+        <v>0.8078224567195351</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.7479846270420578</v>
+        <v>0.7693353921571509</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.085030700548752</v>
+        <v>1.098194388735803</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.093833933225648</v>
+        <v>1.144201140468913</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.146402083072458</v>
+        <v>1.141522929620764</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.103925761315102</v>
+        <v>1.077051402870883</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.083425652559222</v>
+        <v>1.101483084440932</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.091727601242429</v>
+        <v>1.140729683535233</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.149342511169664</v>
+        <v>1.135967461280903</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.106704714902531</v>
+        <v>1.074817909649975</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.12516392219378</v>
+        <v>1.109287166245824</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.8817864287482745</v>
+        <v>0.8643786426778404</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.8835119824712931</v>
+        <v>0.8401187206168497</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.8494385873371667</v>
+        <v>0.8487257128181411</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.8336221082796781</v>
+        <v>0.8584395402562182</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.8832988837527217</v>
+        <v>0.8668344184042418</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.8868569531953938</v>
+        <v>0.8433027155303554</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.850783432674954</v>
+        <v>0.8558960055898415</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.8343254599191331</v>
+        <v>0.8682620442995979</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.8414560305213432</v>
+        <v>0.8535549905355311</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.042013783205394</v>
+        <v>1.056699419043054</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.046242710386659</v>
+        <v>1.076602552828808</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.065265378596191</v>
+        <v>1.080371115042484</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.065537736368896</v>
+        <v>1.088632800654106</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.04031903077404</v>
+        <v>1.05648874334712</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.043424995927316</v>
+        <v>1.075429177589442</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.064488811038744</v>
+        <v>1.074457354704644</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.065145621924797</v>
+        <v>1.078428793361644</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.065401557482544</v>
+        <v>1.084501957848295</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9188336125991633</v>
+        <v>0.9133884095508976</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9243679711998556</v>
+        <v>0.9044739592953727</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9048775183339409</v>
+        <v>0.9169387447225625</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.8882558142433946</v>
+        <v>0.9345254409013496</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.9189126386294226</v>
+        <v>0.915800805389929</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.925368712776016</v>
+        <v>0.906912345821753</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.9056494446996226</v>
+        <v>0.9196237580683325</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.8886781108932577</v>
+        <v>0.9363587887557298</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.8964896276653109</v>
+        <v>0.9256485665183105</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.019481794137184</v>
+        <v>1.021621710778971</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.019762825432865</v>
+        <v>1.026026959759747</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.02787879491953</v>
+        <v>1.02182952849299</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.031637132533834</v>
+        <v>1.016979716838678</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.01895045505267</v>
+        <v>1.020574521562057</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.018808293106204</v>
+        <v>1.024744762551898</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.027528283384648</v>
+        <v>1.020964940978062</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.031774963168536</v>
+        <v>1.016514921576228</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.029757963726682</v>
+        <v>1.019404622665834</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9367341398861448</v>
+        <v>0.9331374295710715</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9426360940504103</v>
+        <v>0.9280146666376925</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9301044130948658</v>
+        <v>0.9369550851768103</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9163576811625614</v>
+        <v>0.9503934182663952</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9363264512850995</v>
+        <v>0.9346429688069727</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9427733187572179</v>
+        <v>0.9293536764744965</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9305804192604632</v>
+        <v>0.9389036158782588</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9169158251355748</v>
+        <v>0.9518226807192424</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9231798755830302</v>
+        <v>0.9436264097899465</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.017970118126953</v>
+        <v>1.015429027871929</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.015049419973323</v>
+        <v>1.015643081497016</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.019150928724236</v>
+        <v>1.01328424899983</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.020126117774301</v>
+        <v>1.012832499315193</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.018116963864861</v>
+        <v>1.015100677130254</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.014655571051685</v>
+        <v>1.015245945227283</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.018809752325652</v>
+        <v>1.013346238213166</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.019643394725073</v>
+        <v>1.012312968184615</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.019638523249268</v>
+        <v>1.013058374157512</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9535673630334484</v>
+        <v>0.947534832980264</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9568222205117873</v>
+        <v>0.9425316756983324</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9479167764161424</v>
+        <v>0.9494018298299564</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9348004037770248</v>
+        <v>0.962589341155463</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.953289843768745</v>
+        <v>0.9487567105109885</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9565902001158973</v>
+        <v>0.9435225517228003</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9480844064658539</v>
+        <v>0.9514344471949726</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.934927164618379</v>
+        <v>0.9635424431043335</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9413129010167213</v>
+        <v>0.9559501066072421</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.013812692702792</v>
+        <v>1.015192550720697</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.010721923904625</v>
+        <v>1.018036790390658</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.017034153380406</v>
+        <v>1.019595522331751</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.023715791259934</v>
+        <v>1.011022358667995</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.013825351368366</v>
+        <v>1.014352266291929</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.010683627845263</v>
+        <v>1.017277458087282</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.016900819815521</v>
+        <v>1.017543130410087</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.024784359809129</v>
+        <v>1.011048428039931</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.02037497232017</v>
+        <v>1.015308940499873</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9667386959904416</v>
+        <v>0.9619303039899442</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9670811955503695</v>
+        <v>0.9595319219694592</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9640637361774749</v>
+        <v>0.968005854588194</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9569699350227026</v>
+        <v>0.9731993461236673</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9664694108147425</v>
+        <v>0.9623735194664969</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9668100538143611</v>
+        <v>0.9598242230645965</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9641078101894386</v>
+        <v>0.9681255857787628</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9580987358616094</v>
+        <v>0.9741880724503912</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9605037379601105</v>
+        <v>0.9705956530341537</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.005685520328216</v>
+        <v>1.011875419253079</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.005510213744359</v>
+        <v>1.013705050655935</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.007844787488855</v>
+        <v>1.011186426846525</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.007624095853679</v>
+        <v>1.010164137520081</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.005666629253614</v>
+        <v>1.011181548169845</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.005492768747027</v>
+        <v>1.01310769441035</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.007661653879263</v>
+        <v>1.010860667863407</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.007183944450551</v>
+        <v>1.009776531682769</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.007734441671267</v>
+        <v>1.010675282183303</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9722351084985685</v>
+        <v>0.9733536296420666</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9724100196460019</v>
+        <v>0.9726823555660373</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.971626611313499</v>
+        <v>0.9788343812675525</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9642659655364043</v>
+        <v>0.9830910781121213</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9719460346507881</v>
+        <v>0.9731343453317943</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9721205178622641</v>
+        <v>0.972405305668179</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.971494470533404</v>
+        <v>0.9786400762159727</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9649816639581827</v>
+        <v>0.9837122530056779</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9679322951107295</v>
+        <v>0.9809581119129637</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.004650547935732</v>
+        <v>1.006833074768356</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.004290229659715</v>
+        <v>1.007378218067358</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.006236031739295</v>
+        <v>1.00583562283587</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.005194654884169</v>
+        <v>1.005485261434979</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.004706226065238</v>
+        <v>1.006582098032131</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.004349727820713</v>
+        <v>1.007173617060425</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.006181564766728</v>
+        <v>1.005571949188722</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.005156618334997</v>
+        <v>1.004946167049513</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.005715343311732</v>
+        <v>1.005660442135424</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9767565344754428</v>
+        <v>0.980004627769462</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9765818819536912</v>
+        <v>0.9798590180956754</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9776857057003937</v>
+        <v>0.9845464895354122</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9692749944439155</v>
+        <v>0.9884835896899612</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9765202324130663</v>
+        <v>0.979539610991202</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9763489775238954</v>
+        <v>0.9793809689585683</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9774998265235241</v>
+        <v>0.9840930089946955</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9699577060994852</v>
+        <v>0.9885778581376973</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9734621832792053</v>
+        <v>0.9865111114521913</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.005103153609817</v>
+        <v>1.005197069583553</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.00528290689384</v>
+        <v>1.005346444559637</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.005038003810877</v>
+        <v>1.005306151193238</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.002943656947752</v>
+        <v>1.00519288931758</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.005188609487787</v>
+        <v>1.005110270811735</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.005364922945245</v>
+        <v>1.005273080526684</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.004960466930252</v>
+        <v>1.005237934148278</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.002970217873473</v>
+        <v>1.00498437860288</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.003990830379315</v>
+        <v>1.005249520255409</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9817410731102632</v>
+        <v>0.9850977800121838</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9817410731102632</v>
+        <v>0.9850977800121838</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9826112900115527</v>
+        <v>0.9897706420656582</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9721282075155927</v>
+        <v>0.9936166755634656</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9815870145559803</v>
+        <v>0.9845453236741882</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9815870145559803</v>
+        <v>0.9845453236741882</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.982348682087321</v>
+        <v>0.9892476233715907</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9728386918146542</v>
+        <v>0.99350530446108</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9773416388750795</v>
+        <v>0.9916899298470692</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.00865408430717</v>
+        <v>1.003253334738231</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.00865408430717</v>
+        <v>1.003253334738231</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.003104202159745</v>
+        <v>1.003426358553652</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.003153350967718</v>
+        <v>1.002921121968702</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.008622382907214</v>
+        <v>1.003204057618645</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.008622382907214</v>
+        <v>1.003204057618645</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.003075667611871</v>
+        <v>1.003417782388086</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.003161993140879</v>
+        <v>1.002898268359419</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.003128776563731</v>
+        <v>1.003173740261177</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9902371431247707</v>
+        <v>0.9883026328404521</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9902371431247707</v>
+        <v>0.9883026328404521</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9856615141001961</v>
+        <v>0.9931619511712534</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9751936689395079</v>
+        <v>0.9965191510629231</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.990050633652231</v>
+        <v>0.9876998636194072</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.990050633652231</v>
+        <v>0.9876998636194072</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9853700601123814</v>
+        <v>0.9926286564762058</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9759148010853534</v>
+        <v>0.9963847494499142</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.980399650705238</v>
+        <v>0.9948377188061467</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.002399955893168</v>
+        <v>1.002587179727201</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.002399955893168</v>
+        <v>1.002587179727201</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.002715666683176</v>
+        <v>1.002916978628329</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.002464758673244</v>
+        <v>1.00241409002401</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.002318213945138</v>
+        <v>1.00264785581209</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.002318213945138</v>
+        <v>1.00264785581209</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.002686287784224</v>
+        <v>1.003109197029799</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.002468675219312</v>
+        <v>1.002560472990825</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.00259021267821</v>
+        <v>1.00266553432617</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9926136685920469</v>
+        <v>0.9908595493764764</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9926136685920469</v>
+        <v>0.9908595493764764</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9883382422349264</v>
+        <v>0.9960589833572895</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9775972859931193</v>
+        <v>0.9989248380042393</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9923457828375559</v>
+        <v>0.9903151504438924</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9923457828375559</v>
+        <v>0.9903151504438924</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9880170476678007</v>
+        <v>0.9957149345466149</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9783240177709525</v>
+        <v>0.9989359656893506</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9829384223224605</v>
+        <v>0.9974898522372898</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.006719448012796</v>
+        <v>1.007159821116223</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.006719448012796</v>
+        <v>1.007159821116223</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.011136461814685</v>
+        <v>1.001510822756019</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.022409262012254</v>
+        <v>1.000225164037722</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.006983800674491</v>
+        <v>1.007671366188777</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.006983800674491</v>
+        <v>1.007671366188777</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.011461754115327</v>
+        <v>1.001771657529639</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.021606793383593</v>
+        <v>1.000229429187984</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.016772861913469</v>
+        <v>1.00086799339687</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9992834845349416</v>
+        <v>0.9979539265013133</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9992834845349416</v>
+        <v>0.9979539265013133</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9993448333295685</v>
+        <v>0.9975638519356825</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9995045197174077</v>
+        <v>0.9991497599541449</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9992761279850648</v>
+        <v>0.9979122206052413</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9992761279850648</v>
+        <v>0.9979122206052413</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.999341456129921</v>
+        <v>0.9974790004077787</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9994624626851361</v>
+        <v>0.9991651507568067</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9994246701448828</v>
+        <v>0.9983561761339513</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.000294761369939</v>
+        <v>1.000717884456003</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.000294761369939</v>
+        <v>1.000717884456003</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.000200470281219</v>
+        <v>1.000931004024349</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1.000102599126304</v>
+        <v>1.000233725177164</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.000288107233345</v>
+        <v>1.000775963914111</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.000288107233345</v>
+        <v>1.000775963914111</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1.000191397532875</v>
+        <v>1.001033571575602</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1.000112654137724</v>
+        <v>1.000235571841095</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.000151534703761</v>
+        <v>1.000582364600757</v>
       </c>
     </row>
     <row r="17">
@@ -7663,62 +7663,62 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9995780347038009</v>
+        <v>0.9986703421129555</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9995780347038009</v>
+        <v>0.9986703421129555</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9995451722693403</v>
+        <v>0.9984925878963798</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.9996070680078674</v>
+        <v>0.999383286408804</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9995640266656466</v>
+        <v>0.9986865644778811</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9995640266656466</v>
+        <v>0.9986865644778811</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9995327276191236</v>
+        <v>0.9985099663498598</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9995750562670574</v>
+        <v>0.9994005259309285</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.999576119180427</v>
+        <v>0.9989377386057627</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.000097564224578</v>
+        <v>1.000254281737365</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.000097564224578</v>
+        <v>1.000254281737365</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.000130444820243</v>
+        <v>1.000332731296095</v>
       </c>
       <c r="Q17" s="22" t="n">
-        <v>1</v>
+        <v>1.000166558266202</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1.000093949861368</v>
+        <v>1.000257594126758</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1.000093949861368</v>
+        <v>1.000257594126758</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1.000125266481824</v>
+        <v>1.000343458835677</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>1</v>
+        <v>1.000144992917348</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.000065222410122</v>
+        <v>1.000249644781148</v>
       </c>
     </row>
     <row r="18">
@@ -7727,62 +7727,62 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9996755577596617</v>
+        <v>0.9989242857426033</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9996755577596617</v>
+        <v>0.9989242857426033</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9996755577596617</v>
+        <v>0.9988248176292914</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>0.9996070680078674</v>
+        <v>0.9995497419562597</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9996579355673803</v>
+        <v>0.9989438202713622</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9996579355673803</v>
+        <v>0.9989438202713622</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9996579355673803</v>
+        <v>0.9988529134203139</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>0.9995750562670574</v>
+        <v>0.9995454319287824</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9996413117106321</v>
+        <v>0.9991871483070944</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1</v>
+        <v>1.000582449115264</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1</v>
+        <v>1.000582449115264</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1</v>
+        <v>1.00068209226256</v>
       </c>
       <c r="Q18" s="22" t="n">
-        <v>1</v>
+        <v>1.000184334890782</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>1</v>
+        <v>1.00054636584561</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>1</v>
+        <v>1.00054636584561</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1</v>
+        <v>1.000637426819879</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>1</v>
+        <v>1.000188224144241</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1</v>
+        <v>1.000433213576671</v>
       </c>
     </row>
     <row r="19">
@@ -7791,62 +7791,62 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9996755577596617</v>
+        <v>0.9995061083090494</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9996755577596617</v>
+        <v>0.9995061083090494</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9996755577596617</v>
+        <v>0.9995061083090494</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>0.9996070680078674</v>
+        <v>0.999733993848774</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9996579355673803</v>
+        <v>0.9994896090564419</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9996579355673803</v>
+        <v>0.9994896090564419</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9996579355673803</v>
+        <v>0.9994896090564419</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>0.9995750562670574</v>
+        <v>0.9997335705123375</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.9996413117106321</v>
+        <v>0.9996200380910222</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
         <v/>
       </c>
       <c r="N19" s="22" t="n">
-        <v>1.00008804670497</v>
+        <v>1.000478534080632</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>1.00008804670497</v>
+        <v>1.000478534080632</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>1.00008804670497</v>
+        <v>1.000478534080632</v>
       </c>
       <c r="Q19" s="22" t="n">
-        <v>1.000091505286887</v>
+        <v>1.000266076929326</v>
       </c>
       <c r="R19" s="22" t="n">
-        <v>1.000091665417358</v>
+        <v>1.000494042253931</v>
       </c>
       <c r="S19" s="22" t="n">
-        <v>1.000091665417358</v>
+        <v>1.000494042253931</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1.000091665417358</v>
+        <v>1.000494042253931</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>1.000100066679817</v>
+        <v>1.000266500491252</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1.000089775995928</v>
+        <v>1.000372305504979</v>
       </c>
     </row>
     <row r="20">
@@ -7855,62 +7855,62 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>0.9997635758985612</v>
+        <v>0.9999844060456748</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>0.9997635758985612</v>
+        <v>0.9999844060456748</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>0.9997635758985612</v>
+        <v>0.9999844060456748</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>0.9996985373393995</v>
+        <v>1</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>0.9997495696292593</v>
+        <v>0.999983399155681</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>0.9997495696292593</v>
+        <v>0.999983399155681</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>0.9997495696292593</v>
+        <v>0.999983399155681</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>0.999675080424166</v>
+        <v>1</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>0.9997310555611923</v>
+        <v>0.9999922029620441</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
         <v/>
       </c>
       <c r="N20" s="22" t="n">
-        <v>1.000181784450263</v>
+        <v>1.0000155941975</v>
       </c>
       <c r="O20" s="22" t="n">
-        <v>1.000181784450263</v>
+        <v>1.0000155941975</v>
       </c>
       <c r="P20" s="22" t="n">
-        <v>1.000181784450263</v>
+        <v>1.0000155941975</v>
       </c>
       <c r="Q20" s="22" t="n">
-        <v>1.000228422093129</v>
+        <v>1</v>
       </c>
       <c r="R20" s="22" t="n">
-        <v>1.000193827508371</v>
+        <v>1.000016601119912</v>
       </c>
       <c r="S20" s="22" t="n">
-        <v>1.000193827508371</v>
+        <v>1.000016601119912</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1.000193827508371</v>
+        <v>1.000016601119912</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>1.000249466855312</v>
+        <v>1</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1.000205103271696</v>
+        <v>1.00000779709875</v>
       </c>
     </row>
     <row r="21">
@@ -7919,62 +7919,62 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>0.999945317370599</v>
+        <v>1</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>0.999945317370599</v>
+        <v>1</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>0.999945317370599</v>
+        <v>1</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>0.9999268905717964</v>
+        <v>1</v>
       </c>
       <c r="F21" s="34" t="n">
-        <v>0.9999433485973361</v>
+        <v>1</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>0.9999433485973361</v>
+        <v>1</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>0.9999433485973361</v>
+        <v>1</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>0.9999244662228131</v>
+        <v>1</v>
       </c>
       <c r="J21" s="34" t="n">
-        <v>0.9999361038863055</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
         <v/>
       </c>
       <c r="N21" s="22" t="n">
-        <v>1.000054685619755</v>
+        <v>1</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>1.000054685619755</v>
+        <v>1</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>1.000054685619755</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>1.000073114773583</v>
+        <v>1</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>1.000056654612227</v>
+        <v>1</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>1.000056654612227</v>
+        <v>1</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1.000056654612227</v>
+        <v>1</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1.000075539482969</v>
+        <v>1</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1.000063900196669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -8186,7 +8186,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="O41" sqref="O41"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45596</v>
+        <v>45808</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>230460.83</v>
+        <v>212000.17</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>786217.0743999999</v>
+        <v>772744.2204</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>14825</v>
+        <v>34198.72</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>83769.31</v>
+        <v>146591.42</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>153423.72</v>
+        <v>174403.09</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>180343.16</v>
+        <v>194574.91</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>196899.36</v>
+        <v>200487.4</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>207080.27</v>
+        <v>203993.04</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>213663.35</v>
+        <v>206380.92</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>215165.52</v>
+        <v>208819.14</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>227042.15</v>
+        <v>209537.03</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>227442.15</v>
+        <v>209640.93</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>227899.33</v>
+        <v>209991.64</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>228599.63</v>
+        <v>210654.49</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>230259.97</v>
+        <v>211617.17</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>230359.97</v>
+        <v>211782.85</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>230409.97</v>
+        <v>211935.17</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>230409.97</v>
+        <v>211935.17</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>230409.97</v>
+        <v>211935.17</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>230409.97</v>
+        <v>211935.17</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>230409.97</v>
+        <v>212000.17</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>230460.83</v>
+        <v>212000.17</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>230460.83</v>
+        <v>212000.17</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>230460.83</v>
+        <v>212000.17</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>230460.83</v>
+        <v>212000.17</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>230460.83</v>
+        <v>212000.17</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>234693.39</v>
+        <v>192774.08</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>807805.1969</v>
+        <v>777381.8404</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>7975</v>
+        <v>34530.82</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>95725.42</v>
+        <v>129070.95</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>154007.29</v>
+        <v>148758.05</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>179333.76</v>
+        <v>173259.01</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>187491.95</v>
+        <v>183943.65</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>194849.46</v>
+        <v>186781.59</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>196799.76</v>
+        <v>188592.1</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>213553.33</v>
+        <v>189717.1</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>215903.33</v>
+        <v>189717.1</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>216603.33</v>
+        <v>190318.38</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>219133.33</v>
+        <v>191154.46</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>219383.33</v>
+        <v>191752.19</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>234084.78</v>
+        <v>191952.76</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>234584.78</v>
+        <v>192118.08</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>234584.78</v>
+        <v>192313.08</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>234634.78</v>
+        <v>192378.08</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>234634.78</v>
+        <v>192378.08</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>234634.78</v>
+        <v>192443.08</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>234693.39</v>
+        <v>192758.08</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>234693.39</v>
+        <v>192774.08</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>234693.39</v>
+        <v>192774.08</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>234693.39</v>
+        <v>192774.08</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>234693.39</v>
+        <v>192774.08</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>228527.76</v>
+        <v>228298.39</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>822468.9107</v>
+        <v>765942.1604000001</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>28500.02</v>
+        <v>52842.75</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>94393.39</v>
+        <v>145359.08</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>155142.63</v>
+        <v>173830.95</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>191003.94</v>
+        <v>180957.09</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>203001.19</v>
+        <v>185272.16</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>210952.31</v>
+        <v>195987.16</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>217385.57</v>
+        <v>198215.52</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>221854.57</v>
+        <v>204286.13</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>222699.03</v>
+        <v>206149.15</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>225835.13</v>
+        <v>207543.89</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>226485.13</v>
+        <v>209833.85</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>226835.13</v>
+        <v>212890.9</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>228141.14</v>
+        <v>213512.83</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>228196.75</v>
+        <v>213982.49</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>228196.75</v>
+        <v>227481.84</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>228477.76</v>
+        <v>227582.9</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>228527.76</v>
+        <v>227582.9</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>228527.76</v>
+        <v>228247.9</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>228527.76</v>
+        <v>228298.39</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>228527.76</v>
+        <v>228298.39</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>228527.76</v>
+        <v>228298.39</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>228527.76</v>
+        <v>228298.39</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>220685.17</v>
+        <v>195059.83</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>809777.0507</v>
+        <v>761246.9570000001</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>21390</v>
+        <v>28243.6</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>99308.37</v>
+        <v>128438.49</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>168960.25</v>
+        <v>169289.84</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>188756.5</v>
+        <v>173654.08</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>193631.5</v>
+        <v>180367.71</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>200273.47</v>
+        <v>185525.4</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>204737.83</v>
+        <v>187040.45</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>206840.12</v>
+        <v>187478.04</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>211596.16</v>
+        <v>189305.81</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>212916.17</v>
+        <v>191258.99</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>213466.17</v>
+        <v>192443.5</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>219615.29</v>
+        <v>193103.33</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>220267.89</v>
+        <v>193806.2899999999</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>220217.89</v>
+        <v>194648.4099999999</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>220405.17</v>
+        <v>194894.3</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>220405.17</v>
+        <v>195009.83</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>220470.17</v>
+        <v>195009.83</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>220470.17</v>
+        <v>195009.83</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>220470.17</v>
+        <v>195059.83</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>220635.17</v>
+        <v>195059.83</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>220685.17</v>
+        <v>195059.83</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>273349.01</v>
+        <v>197906.19</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>829805.5107</v>
+        <v>793466.1816000001</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>24000</v>
+        <v>47025</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>144508.22</v>
+        <v>132212.14</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>197784.65</v>
+        <v>164499.46</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>208952.51</v>
+        <v>178029.77</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>253547.69</v>
+        <v>182648.85</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>261960.78</v>
+        <v>183873.85</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>264469.73</v>
+        <v>185985.31</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>266885.61</v>
+        <v>190265.74</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>268152.76</v>
+        <v>191903.96</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>268752.76</v>
+        <v>193311.76</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>269833.81</v>
+        <v>194138.13</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>270358.81</v>
+        <v>194888.9</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>270458.81</v>
+        <v>195428.9</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>272296.74</v>
+        <v>195874.91</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>273144.67</v>
+        <v>196540.01</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>273284.01</v>
+        <v>197475.14</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>273349.01</v>
+        <v>197796.19</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>273349.01</v>
+        <v>197846.19</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>273349.01</v>
+        <v>197906.19</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>273349.01</v>
+        <v>197906.19</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>216587.29</v>
+        <v>208523.83</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>800031.0838</v>
+        <v>844307.9016</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>22750</v>
+        <v>40850.05</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>151657.04</v>
+        <v>123031.18</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>178966.57</v>
+        <v>181998.5</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>187867.56</v>
+        <v>189818.33</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>202515.83</v>
+        <v>193058.33</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>208995.87</v>
+        <v>194625.87</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>211345.87</v>
+        <v>198710.28</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>213273.47</v>
+        <v>201718.26</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>213523.47</v>
+        <v>203472.22</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>214498.47</v>
+        <v>204184.01</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>215107.2</v>
+        <v>205125.7</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>215157.2</v>
+        <v>205457.15</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>215510.04</v>
+        <v>206072.2</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>216276.45</v>
+        <v>207070.91</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>216457.29</v>
+        <v>208378.83</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>216522.29</v>
+        <v>208408.83</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>216522.29</v>
+        <v>208408.83</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>216522.29</v>
+        <v>208473.83</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>216587.29</v>
+        <v>208523.83</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>229269.41</v>
+        <v>217659.51</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>809298.3138</v>
+        <v>862128.4715999999</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>49486.46</v>
+        <v>8000</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>147572.89</v>
+        <v>149877.54</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>196119.13</v>
+        <v>179247.77</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>214278.64</v>
+        <v>182597.47</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>218578.64</v>
+        <v>189444.21</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>221937.01</v>
+        <v>195878.96</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>223737.86</v>
+        <v>200989.37</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>224441.06</v>
+        <v>204129.99</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>226308.63</v>
+        <v>212885.6</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>227041.02</v>
+        <v>213788.25</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>227293.64</v>
+        <v>215196.07</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>227508.64</v>
+        <v>216324.08</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>228271.29</v>
+        <v>216754.08</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>229269.41</v>
+        <v>217549.4600000001</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>229269.41</v>
+        <v>217599.4600000001</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>229269.41</v>
+        <v>217659.51</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>229269.41</v>
+        <v>217659.51</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>229269.41</v>
+        <v>217659.51</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>211935.17</v>
+        <v>264495.73</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>800277.3304</v>
+        <v>920567.5715999999</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>34198.72</v>
+        <v>46887.2</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>146591.42</v>
+        <v>183388.09</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>174403.09</v>
+        <v>188553.6</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>194574.91</v>
+        <v>204153.41</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>200487.4</v>
+        <v>225759.49</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>203993.04</v>
+        <v>240436.98</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>206380.92</v>
+        <v>245813.82</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>208819.14</v>
+        <v>248333.44</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>209537.03</v>
+        <v>252912.95</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>209640.93</v>
+        <v>256373.73</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>209991.64</v>
+        <v>261489.1500000001</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>210654.49</v>
+        <v>262168.6</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>211617.17</v>
+        <v>263632.76</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>211782.85</v>
+        <v>264280.73</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>211935.17</v>
+        <v>264380.73</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>211935.17</v>
+        <v>264380.73</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>211935.17</v>
+        <v>264495.73</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>192394.08</v>
+        <v>267091.35</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>804447.0804</v>
+        <v>891859.2416</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>34530.82</v>
+        <v>31275</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>129070.95</v>
+        <v>46898.78</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>148774.05</v>
+        <v>81237.87</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>173275.01</v>
+        <v>172544.29</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>183959.65</v>
+        <v>211547.99</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>186797.59</v>
+        <v>231082.21</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>188608.1</v>
+        <v>238505.63</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>189733.1</v>
+        <v>243396.71</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>189733.1</v>
+        <v>246522.31</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>190334.38</v>
+        <v>259601.01</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>191170.46</v>
+        <v>261659.74</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>191768.19</v>
+        <v>264185.75</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>191968.76</v>
+        <v>265305.72</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>192134.08</v>
+        <v>266936.35</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>192329.08</v>
+        <v>266976.35</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>192394.08</v>
+        <v>267091.35</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>227481.84</v>
+        <v>313195.23</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>796110.8903999999</v>
+        <v>917324.7136</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>52842.75</v>
+        <v>1607.52</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>145359.08</v>
+        <v>23359.98</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>173830.95</v>
+        <v>117939.13</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>180957.09</v>
+        <v>220032.14</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>185272.16</v>
+        <v>273697.9</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>195987.16</v>
+        <v>283867.68</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>198215.52</v>
+        <v>291675.7</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>204286.13</v>
+        <v>299831.05</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>206149.15</v>
+        <v>303006.43</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>207543.89</v>
+        <v>308024.8</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>209833.85</v>
+        <v>309822.75</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>212890.9</v>
+        <v>311130.91</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>213512.83</v>
+        <v>312665.11</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>213982.49</v>
+        <v>313145.11</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>227481.84</v>
+        <v>313195.23</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>194648.4099999999</v>
+        <v>296325.48</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>788546.057</v>
+        <v>898993.9436</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>28243.6</v>
+        <v>225</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>128438.49</v>
+        <v>59951.68</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>169289.84</v>
+        <v>183769.5</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>173654.08</v>
+        <v>234873.79</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>180367.71</v>
+        <v>250659.06</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>185525.4</v>
+        <v>261605.16</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>187040.45</v>
+        <v>271013.32</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>187478.04</v>
+        <v>274642.99</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>189305.81</v>
+        <v>288952.78</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>191258.99</v>
+        <v>292832.16</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>192443.5</v>
+        <v>294245.31</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>193103.33</v>
+        <v>295960.48</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>193806.2899999999</v>
+        <v>296325.48</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>194648.4099999999</v>
+        <v>296325.48</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>195488.9</v>
+        <v>322887.14</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>823535.4284999999</v>
+        <v>793677.1135999999</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>47025</v>
+        <v>19650</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>132242.14</v>
+        <v>100006.83</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>164529.46</v>
+        <v>188667.73</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>178059.77</v>
+        <v>240655.44</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>182678.85</v>
+        <v>270026.1899999999</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>183903.85</v>
+        <v>301028.47</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>186015.31</v>
+        <v>309186.78</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>190295.74</v>
+        <v>311887.53</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>191933.96</v>
+        <v>315752.16</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>193341.76</v>
+        <v>317598.31</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>194168.13</v>
+        <v>320164.17</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>194918.9</v>
+        <v>322072.14</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>195488.9</v>
+        <v>322887.14</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>205517.72</v>
+        <v>213962.73</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>877556.8785000001</v>
+        <v>712288.322</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>40850.05</v>
+        <v>13750</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>123031.18</v>
+        <v>71881.32000000001</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>181998.5</v>
+        <v>123574.36</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>189818.33</v>
+        <v>158732.9</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>193058.33</v>
+        <v>179539.34</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>194625.87</v>
+        <v>198465.37</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>198710.28</v>
+        <v>202437.95</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>201748.83</v>
+        <v>206921.88</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>203502.79</v>
+        <v>208498.45</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>204244.58</v>
+        <v>212562.73</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>205186.27</v>
+        <v>213287.73</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>205517.72</v>
+        <v>213962.73</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>215196.07</v>
+        <v>179768.87</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>906397.4716000002</v>
+        <v>652147.992</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>8000</v>
+        <v>18700</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>149877.54</v>
+        <v>53468.5</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>179247.77</v>
+        <v>95961.48999999999</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>182597.47</v>
+        <v>145952.79</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>189444.21</v>
+        <v>158018.83</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>195878.96</v>
+        <v>167368.13</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>200989.37</v>
+        <v>172148.99</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>204129.99</v>
+        <v>174258.48</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>212885.6</v>
+        <v>178118.52</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>213788.25</v>
+        <v>179168.87</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>215196.07</v>
+        <v>179768.87</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>256688.84</v>
+        <v>191125.42</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>949580.9315999999</v>
+        <v>593816.92</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>46887.2</v>
+        <v>11550</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>183438.09</v>
+        <v>53200.3</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>188603.6</v>
+        <v>89708.45000000001</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>204203.41</v>
+        <v>144762.67</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>225809.49</v>
+        <v>162526.8</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>240536.98</v>
+        <v>182031.13</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>246013.82</v>
+        <v>187066.74</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>248598.44</v>
+        <v>189906.9</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>253228.06</v>
+        <v>190375.42</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>256688.84</v>
+        <v>191125.42</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>246592.79</v>
+        <v>127145.89</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>913172.7015999999</v>
+        <v>538049.1900000001</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>31275</v>
+        <v>13666.33</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>46898.78</v>
+        <v>50834.11</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>81268.35000000001</v>
+        <v>66889.00999999999</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>172574.77</v>
+        <v>94190.37999999999</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>211618.47</v>
+        <v>118659.16</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>231152.69</v>
+        <v>122490.09</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>238576.11</v>
+        <v>125167.2</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>243467.19</v>
+        <v>126070.89</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>246592.79</v>
+        <v>127145.89</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>300220.42</v>
+        <v>156527.44</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>936573.4136</v>
+        <v>494665.73</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>1607.52</v>
+        <v>13850</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>23359.98</v>
+        <v>53862.36</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>118219.13</v>
+        <v>64054.21</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>220346.51</v>
+        <v>107855.2</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>274087.27</v>
+        <v>130381.72</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>284257.05</v>
+        <v>151555.8</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>292065.0700000001</v>
+        <v>154284.69</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>300220.42</v>
+        <v>156527.44</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>271159.61</v>
+        <v>104168.48</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>914738.5136000001</v>
+        <v>448035.97</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>225</v>
+        <v>9175</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>59951.68</v>
+        <v>36722.74000000001</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>183913.84</v>
+        <v>53387.10000000001</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>235070.92</v>
+        <v>86792.39000000001</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>250856.19</v>
+        <v>98741.42000000001</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>261802.29</v>
+        <v>103169.47</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>271159.61</v>
+        <v>104168.48</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>301297.76</v>
+        <v>89826.38</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>808357.6335999999</v>
+        <v>401374.72</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>19650</v>
+        <v>4350</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>100056.83</v>
+        <v>32698.15</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>188882.73</v>
+        <v>54570.12</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>240924.73</v>
+        <v>83723.60000000001</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>270295.48</v>
+        <v>87376.28</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>301297.76</v>
+        <v>89826.38</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>179783.42</v>
+        <v>75798.39999999999</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>727815.452</v>
+        <v>345368.74</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>13800</v>
+        <v>8350</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>72025.13</v>
+        <v>28738.5</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>123793.48</v>
+        <v>63938.67</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>158952.02</v>
+        <v>72662.84</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>179783.42</v>
+        <v>75798.39999999999</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>146151.66</v>
+        <v>72960.41</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>664972.742</v>
+        <v>299134.72</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>18700</v>
+        <v>7250.8</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>53468.5</v>
+        <v>47536.23</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>96030.36</v>
+        <v>61726.11</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>146151.66</v>
+        <v>72960.41</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>89758.64999999999</v>
+        <v>69071.59</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>606351.2999999999</v>
+        <v>215530.77</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>30</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>11550</v>
+        <v>11425</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>53250.5</v>
+        <v>54872.78</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>89758.64999999999</v>
+        <v>69071.59</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>50859.07</v>
+        <v>25265.27</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>548702.7899999999</v>
+        <v/>
       </c>
       <c r="J30" s="20" t="n">
         <v>30</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>13716.33</v>
+        <v>9825</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>50859.07</v>
+        <v>25265.27</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>13850</v>
+        <v>1041.42</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>13850</v>
+        <v>1041.42</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
@@ -11800,21 +11800,7 @@
       <c r="H35" s="26" t="n">
         <v>0.075</v>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Previous Quarter</t>
-        </is>
-      </c>
-      <c r="J35" s="25" t="inlineStr">
-        <is>
-          <t>Liability Change</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Annzd Prem Change</t>
-        </is>
-      </c>
+      <c r="J35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="C36" s="22" t="n"/>
@@ -11825,10 +11811,7 @@
         <v/>
       </c>
       <c r="I36" s="28" t="n"/>
-      <c r="J36" s="29">
-        <f>(H36-I36)/I36</f>
-        <v/>
-      </c>
+      <c r="J36" s="29" t="n"/>
       <c r="K36" s="29" t="n"/>
     </row>
     <row r="37">

--- a/Process Results/Unified_IBNP_XCH.xlsx
+++ b/Process Results/Unified_IBNP_XCH.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0941642399105813</v>
+        <v>0.1719775832553087</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08094846718190403</v>
+        <v>0.08444125518335915</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.06893791507542513</v>
+        <v>0.08352968708248572</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.08705765573122971</v>
+        <v>0.1132678322848919</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4218250551679508</v>
+        <v>0.6259112331733045</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3628903049592054</v>
+        <v>0.3800103556893141</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2966550954401903</v>
+        <v>0.3465717253196297</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3901445815576407</v>
+        <v>0.4729051508220665</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6263533331167056</v>
+        <v>0.7905089889517647</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5230862061848089</v>
+        <v>0.5606011058850098</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5139460828985577</v>
+        <v>0.5473923261328348</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5700809438838759</v>
+        <v>0.6559942303916215</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7970274565986782</v>
+        <v>0.8870163482121876</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7435029913066258</v>
+        <v>0.7595378315706536</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.73424041534564</v>
+        <v>0.7440766117572583</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.7693353921571509</v>
+        <v>0.8183423077856569</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8584395402562182</v>
+        <v>0.9206779497005825</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8487257128181411</v>
+        <v>0.8586937977569526</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8401187206168497</v>
+        <v>0.8411744383149108</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8535549905355311</v>
+        <v>0.8886062693409659</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9345254409013496</v>
+        <v>0.9504827760860349</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9169387447225625</v>
+        <v>0.926253997651998</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9044739592953727</v>
+        <v>0.9047019238586719</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9256485665183105</v>
+        <v>0.9382119894155695</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9503934182663952</v>
+        <v>0.9649499622430309</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9369550851768103</v>
+        <v>0.9463782428149609</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9280146666376925</v>
+        <v>0.9279326294660762</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9436264097899465</v>
+        <v>0.9555738750208153</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.962589341155463</v>
+        <v>0.974564815813441</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9494018298299564</v>
+        <v>0.9596585884123714</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9425316756983324</v>
+        <v>0.9421362340611865</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9559501066072421</v>
+        <v>0.9670542641729954</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9731993461236673</v>
+        <v>0.9798109484336404</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.968005854588194</v>
+        <v>0.9694160825479505</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9595319219694592</v>
+        <v>0.9591235115750772</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9705956530341537</v>
+        <v>0.9745857985458054</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9830910781121213</v>
+        <v>0.9841609096133331</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9788343812675525</v>
+        <v>0.9783010668598529</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9726823555660373</v>
+        <v>0.9720068974497045</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9809581119129637</v>
+        <v>0.9812222395939424</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9884835896899612</v>
+        <v>0.9874153188629734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9845464895354122</v>
+        <v>0.983322537008772</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9798590180956754</v>
+        <v>0.9786397599628367</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9865111114521913</v>
+        <v>0.9853646780395063</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9936166755634656</v>
+        <v>0.9924038123187977</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9897706420656582</v>
+        <v>0.9890233669053828</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9850977800121838</v>
+        <v>0.9840379857928993</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9916899298470692</v>
+        <v>0.9907107059807075</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9965191510629231</v>
+        <v>0.9951970115504488</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9931619511712534</v>
+        <v>0.9928511371684196</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9883026328404521</v>
+        <v>0.987303919918055</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9948377188061467</v>
+        <v>0.9940226903067844</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9989248380042393</v>
+        <v>0.995978747980975</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9960589833572895</v>
+        <v>0.9951038317471289</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9908595493764764</v>
+        <v>0.9897840733188241</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9974898522372898</v>
+        <v>0.9955410976373648</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9991497599541449</v>
+        <v>0.9963172741152938</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9975638519356825</v>
+        <v>0.9962201184916516</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9979539265013133</v>
+        <v>0.996640768035905</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9983561761339513</v>
+        <v>0.9962686939348308</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.999383286408804</v>
+        <v>0.9965296602233802</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9984925878963798</v>
+        <v>0.9970385902443217</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9986703421129555</v>
+        <v>0.9973526127743575</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9989377386057627</v>
+        <v>0.996784060272502</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9995497419562597</v>
+        <v>0.9967630175762822</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9988248176292914</v>
+        <v>0.9974052588511716</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9989242857426033</v>
+        <v>0.9976323677976343</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9991871483070944</v>
+        <v>0.9970840347937044</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.999733993848774</v>
+        <v>0.9997436470655849</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9995061083090494</v>
+        <v>0.9995203511853415</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9995061083090494</v>
+        <v>0.9995203511853415</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9996200380910222</v>
+        <v>0.9996319866556117</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4414,17 +4414,17 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9999844060456748</v>
+        <v>0.9999843530319013</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.9999844060456748</v>
+        <v>0.9999843530319013</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.9999922029620441</v>
+        <v>0.9999921764547433</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4833,61 +4833,61 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>4.286459259293914</v>
+        <v>3.737847812475928</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.189722358921143</v>
+        <v>1.152529287186621</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.115662056217009</v>
+        <v>1.164703422772751</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.030386702992693</v>
+        <v>1.061668596628828</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.017485587622963</v>
+        <v>1.015428311877034</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.011705693488366</v>
+        <v>1.009693192996162</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.011814173519529</v>
+        <v>1.005965255172407</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.003437855361343</v>
+        <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.000495855076308</v>
+        <v>1.003169350575146</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.001672908052831</v>
+        <v>1.004393059671903</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1.00315655423235</v>
+        <v>1.003126947705013</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.004569947690173</v>
+        <v>1.001045985446111</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1.000782923238223</v>
+        <v>1.000861253570931</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1.000719227265097</v>
+        <v>1.001015000774524</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>1</v>
+        <v>1.000337990530857</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>1</v>
+        <v>1.000337876331856</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1.000306697562278</v>
+        <v>1.001636847633077</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>1</v>
+        <v>1.000083005599558</v>
       </c>
       <c r="U38" s="4" t="n">
         <v>1</v>
@@ -4908,61 +4908,61 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>3.737847812475928</v>
+        <v>2.7507856801548</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.152529287186621</v>
+        <v>1.195872662375133</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.164703422772751</v>
+        <v>1.040994656014939</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.061668596628828</v>
+        <v>1.023845818917623</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.015428311877034</v>
+        <v>1.057833837528531</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.009693192996162</v>
+        <v>1.011369928519807</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.005965255172407</v>
+        <v>1.030626310190039</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1</v>
+        <v>1.009119659763489</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1.003169350575146</v>
+        <v>1.006765683972017</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.004393059671903</v>
+        <v>1.01103361799762</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.003126947705013</v>
+        <v>1.014568907733428</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.001045985446111</v>
+        <v>1.002921355492414</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1.000861253570931</v>
+        <v>1.002199680459483</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1.001015000774524</v>
+        <v>1.06308623663553</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1.000337990530857</v>
+        <v>1.000444255242528</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>1.000337876331856</v>
+        <v>1.002922012154692</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1.001636847633077</v>
+        <v>1.000221206854477</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>1.000083005599558</v>
+        <v>1</v>
       </c>
       <c r="U39" s="4" t="n">
         <v>1</v>
@@ -4983,58 +4983,58 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>2.7507856801548</v>
+        <v>4.547525457094705</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.195872662375133</v>
+        <v>1.318061587301439</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.040994656014939</v>
+        <v>1.025779692390282</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.023845818917623</v>
+        <v>1.038660940186375</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.057833837528531</v>
+        <v>1.028595417660955</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.011369928519807</v>
+        <v>1.00816626726044</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.030626310190039</v>
+        <v>1.002339547408061</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.009119659763489</v>
+        <v>1.009749248498651</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.006765683972017</v>
+        <v>1.010317591414653</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.01103361799762</v>
+        <v>1.006193225217805</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1.014568907733428</v>
+        <v>1.003428694655834</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1.002921355492414</v>
+        <v>1.003640330801131</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1.002199680459483</v>
+        <v>1.004345163410331</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1.06308623663553</v>
+        <v>1.001263252034784</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1.000444255242528</v>
+        <v>1.000592782857169</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1.002922012154692</v>
+        <v>1</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1.000221206854477</v>
+        <v>1.000256397331355</v>
       </c>
       <c r="T40" s="4" t="n">
         <v>1</v>
@@ -5058,58 +5058,58 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>4.547525457094705</v>
+        <v>2.811528761297183</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.318061587301439</v>
+        <v>1.244208436532379</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.025779692390282</v>
+        <v>1.082251394624639</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.038660940186375</v>
+        <v>1.025945548320374</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.028595417660955</v>
+        <v>1.006706858543046</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.00816626726044</v>
+        <v>1.011483198943188</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.002339547408061</v>
+        <v>1.023014882196879</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.009749248498651</v>
+        <v>1.008610168073348</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.010317591414653</v>
+        <v>1.00733596117558</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.006193225217805</v>
+        <v>1.004274804595437</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1.003428694655834</v>
+        <v>1.003867194970921</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1.003640330801131</v>
+        <v>1.002770809420136</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1.004345163410331</v>
+        <v>1.00228221107523</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1.001263252034784</v>
+        <v>1.003395534425517</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1.000592782857169</v>
+        <v>1.004757962513587</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1</v>
+        <v>1.001625774262016</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>1</v>
+        <v>1.000252785455574</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>1.000256397331355</v>
+        <v>1.000303265885484</v>
       </c>
       <c r="T41" s="4" t="n">
         <v>1</v>
@@ -5133,58 +5133,58 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>2.811528761297183</v>
+        <v>3.011775505782734</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.244208436532379</v>
+        <v>1.479287608230694</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.082251394624639</v>
+        <v>1.042966453020217</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.025945548320374</v>
+        <v>1.017068952192341</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.006706858543046</v>
+        <v>1.008119514967316</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.011483198943188</v>
+        <v>1.020985956286284</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.023014882196879</v>
+        <v>1.015137515784287</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.008610168073348</v>
+        <v>1.008695097806217</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.00733596117558</v>
+        <v>1.003498217103052</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.004274804595437</v>
+        <v>1.00461196741116</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1.003867194970921</v>
+        <v>1.001615838483428</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1.002770809420136</v>
+        <v>1.002993568245252</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1.00228221107523</v>
+        <v>1.004846408200621</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1.003395534425517</v>
+        <v>1.006316290395401</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1.004757962513587</v>
+        <v>1.00014396855957</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>1.001625774262016</v>
+        <v>1</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>1.000252785455574</v>
+        <v>1.00031188697715</v>
       </c>
       <c r="S42" s="4" t="n">
-        <v>1.000303265885484</v>
+        <v>1.000239838256917</v>
       </c>
       <c r="T42" s="4" t="n">
         <v>1</v>
@@ -5208,58 +5208,58 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>3.011775505782734</v>
+        <v>18.7346925</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.479287608230694</v>
+        <v>1.195961516315253</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.042966453020217</v>
+        <v>1.01868754071529</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.017068952192341</v>
+        <v>1.037496357424887</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.008119514967316</v>
+        <v>1.033966464322135</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.020985956286284</v>
+        <v>1.026089632087081</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.015137515784287</v>
+        <v>1.015625801503831</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.008695097806217</v>
+        <v>1.042892325620552</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.003498217103052</v>
+        <v>1.004240070723431</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1.00461196741116</v>
+        <v>1.006585114008838</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.001615838483428</v>
+        <v>1.00524177788191</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1.002993568245252</v>
+        <v>1.001987758366983</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1.004846408200621</v>
+        <v>1.003669504168041</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1.006316290395401</v>
+        <v>1.000229832792966</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1.00014396855957</v>
+        <v>1.000275965758371</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>1.00031188697715</v>
+        <v>1</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>1.000239838256917</v>
+        <v>1.000229716588078</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5283,55 +5283,55 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>18.7346925</v>
+        <v>3.911261282396902</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.195961516315253</v>
+        <v>1.028167096347424</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.01868754071529</v>
+        <v>1.082734087283404</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.037496357424887</v>
+        <v>1.105832569732732</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.033966464322135</v>
+        <v>1.065013833969947</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.026089632087081</v>
+        <v>1.02236278296292</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.015625801503831</v>
+        <v>1.010250115310848</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.042892325620552</v>
+        <v>1.018440971944817</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.004240070723431</v>
+        <v>1.013683680491647</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.006585114008838</v>
+        <v>1.019952980361912</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.00524177788191</v>
+        <v>1.002598386969402</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.001987758366983</v>
+        <v>1.005584803061846</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1.003669504168041</v>
+        <v>1.002457850837658</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1.000229832792966</v>
+        <v>1.000378385514525</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1.000275965758371</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>1</v>
+        <v>1.000434978752044</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>1</v>
+        <v>1.007561558744256</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5358,52 +5358,52 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>3.911261282396902</v>
+        <v>1.499561310951239</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.028167096347424</v>
+        <v>1.732195805519888</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.082734087283404</v>
+        <v>2.123195499832775</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.105832569732732</v>
+        <v>1.226129537438513</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.065013833969947</v>
+        <v>1.092365802284938</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.02236278296292</v>
+        <v>1.032132984852512</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.010250115310848</v>
+        <v>1.020512384353941</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.018440971944817</v>
+        <v>1.012844774906169</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.013683680491647</v>
+        <v>1.053065808548908</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.019952980361912</v>
+        <v>1.007932207908897</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.002598386969402</v>
+        <v>1.0096560262597</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.005584803061846</v>
+        <v>1.004240297428486</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1.002457850837658</v>
+        <v>1.006147629905313</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1.000378385514525</v>
+        <v>1.000149882376058</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1</v>
+        <v>1.000430847254757</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>1.000434978752044</v>
+        <v>1.000226228466259</v>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5433,49 +5433,49 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>1.499561310951239</v>
+        <v>14.53168856375037</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.732195805519888</v>
+        <v>5.048768449288056</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>2.123939118541636</v>
+        <v>1.865641538987103</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.226050366546468</v>
+        <v>1.243672401677318</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.092339426151012</v>
+        <v>1.037163742166485</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.032124584579661</v>
+        <v>1.027510689256568</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.02050718886594</v>
+        <v>1.027965127901965</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.012841586889157</v>
+        <v>1.010592330635976</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.053052804835392</v>
+        <v>1.016399618915499</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.007930362058299</v>
+        <v>1.005838925607811</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1.009653796950192</v>
+        <v>1.004223648408133</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.004239327821429</v>
+        <v>1.004932628721692</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1.006146230092589</v>
+        <v>1.001535680037993</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1.000149848456383</v>
+        <v>1.00016010472101</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1.000430749764914</v>
+        <v>1.000207604568105</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5508,46 +5508,46 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>14.53168856375037</v>
+        <v>266.4519111111111</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>5.048768449288056</v>
+        <v>3.065293583098923</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.865641538987103</v>
+        <v>1.278089073540495</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.243899641206962</v>
+        <v>1.06720745639605</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.037156952976256</v>
+        <v>1.043669277304399</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.027505843567679</v>
+        <v>1.035963205007118</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.027960334028512</v>
+        <v>1.013392957954982</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.010590564252768</v>
+        <v>1.052103241375285</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.016561925765074</v>
+        <v>1.013425653838665</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.005837030005376</v>
+        <v>1.004825801920117</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.004222285161435</v>
+        <v>1.005829047878452</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.004931043334782</v>
+        <v>1.001233272766688</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1.001535188879885</v>
+        <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1.000160053593045</v>
+        <v>1.000700952209712</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5583,43 +5583,43 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>266.4519111111111</v>
+        <v>5.089406106870229</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>3.065293583098923</v>
+        <v>1.886548448740951</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.278089073540495</v>
+        <v>1.275551680194594</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.06720745639605</v>
+        <v>1.122044820594955</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.043669277304399</v>
+        <v>1.114812122483378</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.035963205007118</v>
+        <v>1.02710145654994</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.013392957954982</v>
+        <v>1.008735011244659</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.052103241375285</v>
+        <v>1.012391101369138</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.013425653838665</v>
+        <v>1.005846832528398</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.004825801920117</v>
+        <v>1.008078947271476</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.005829047878452</v>
+        <v>1.005959348917775</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1.001233272766688</v>
+        <v>1.002530488976786</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>1</v>
+        <v>1.000780210695291</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5658,40 +5658,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>5.089406106870229</v>
+        <v>5.227005090909092</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.886548448740951</v>
+        <v>1.719244338353602</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.275551680194594</v>
+        <v>1.284536253010172</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.122044820594955</v>
+        <v>1.13108656658869</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.114812122483378</v>
+        <v>1.102078189559433</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.02710145654994</v>
+        <v>1.020078201567135</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.008735011244659</v>
+        <v>1.022216595867916</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.012391101369138</v>
+        <v>1.007641683067403</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.005846832528398</v>
+        <v>1.019550292476566</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.008078947271476</v>
+        <v>1.003420574011951</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.005959348917775</v>
+        <v>1.003173816083141</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1.002530488976786</v>
+        <v>1.005437005657251</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>5.227732363636364</v>
+        <v>2.85927807486631</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.71914427837441</v>
+        <v>1.794729420125868</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.284513227501239</v>
+        <v>1.520951685931513</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.131078308277616</v>
+        <v>1.082533811104262</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.10541438996044</v>
+        <v>1.059173222991588</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.020016489526611</v>
+        <v>1.028568350300658</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.022149651288209</v>
+        <v>1.012255285992208</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.007619155596305</v>
+        <v>1.022153774527877</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.019493094552981</v>
+        <v>1.005897578486334</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.003410757850165</v>
+        <v>1.003349169883126</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1.003164739012413</v>
+        <v>1.005658394403258</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,34 +5808,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>2.85927807486631</v>
+        <v>4.60608658008658</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.794729420125868</v>
+        <v>1.686239551280726</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.520951685931513</v>
+        <v>1.613701607819553</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.082670841715325</v>
+        <v>1.122712091452859</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.059165733602761</v>
+        <v>1.120006854254191</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.028564936466698</v>
+        <v>1.027663455146381</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.012253862192279</v>
+        <v>1.015182602743812</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.022151231894138</v>
+        <v>1.002467103617615</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.005896916277993</v>
+        <v>1.003939584217332</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1.003348796026899</v>
+        <v>1.00314086948769</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>4.60608658008658</v>
+        <v>3.719660655055161</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.686239551280726</v>
+        <v>1.315829272903568</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.613701607819553</v>
+        <v>1.408159277585361</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.122712091452859</v>
+        <v>1.259780032737951</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.120006854254191</v>
+        <v>1.032285160285982</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.027663455146381</v>
+        <v>1.021855727267406</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.015182602743812</v>
+        <v>1.007219862711637</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.002467103617615</v>
+        <v>1.008526948608041</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1.003939584217332</v>
+        <v>1.00314599237144</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>3.719660655055161</v>
+        <v>3.888979061371841</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.315829272903568</v>
+        <v>1.189220264392425</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.408159277585361</v>
+        <v>1.683811259244318</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.259780032737951</v>
+        <v>1.208858914544686</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.032285160285982</v>
+        <v>1.162400680095338</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.021855727267406</v>
+        <v>1.018005843392335</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.007219862711637</v>
+        <v>1.014536439098397</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.008526948608041</v>
+        <v>1.006388656199833</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>3.888979061371841</v>
+        <v>4.002478474114442</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.189220264392425</v>
+        <v>1.453788578956799</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.683811259244318</v>
+        <v>1.625718385152968</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.208858914544686</v>
+        <v>1.137673706185531</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.162400680095338</v>
+        <v>1.044844909056402</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.018005843392335</v>
+        <v>1.009683194068943</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.014536439098397</v>
+        <v>1.006489391032681</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>4.002478474114442</v>
+        <v>7.516816091954023</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.453788578956799</v>
+        <v>1.668905427371274</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.625718385152968</v>
+        <v>1.534238883843393</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.137673706185531</v>
+        <v>1.043627842089924</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.044844909056402</v>
+        <v>1.028040790933192</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.009683194068943</v>
+        <v>1.016882345698446</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>7.516816091954023</v>
+        <v>3.441736526946108</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.668905427371274</v>
+        <v>2.224843676601075</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.534238883843393</v>
+        <v>1.136445909807007</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.043627842089924</v>
+        <v>1.043152180674469</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.028040790933192</v>
+        <v>1.021118915438848</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>3.441736526946108</v>
+        <v>6.555997958845921</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>2.224843676601075</v>
+        <v>1.298506633782275</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.136445909807007</v>
+        <v>1.182002397364746</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.043152180674469</v>
+        <v>1.026251223094826</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>6.555997958845921</v>
+        <v>4.798492778993436</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.298506633782275</v>
+        <v>1.258994709863309</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.182002397364746</v>
+        <v>1.055190557041644</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>4.802869146608315</v>
+        <v>2.571528753180662</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.258758714247756</v>
+        <v>1.204749444593309</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>2.571528753180662</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.1067088092446292</v>
+        <v>0.1050911601311337</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.06893791507542513</v>
+        <v>0.08352968708248572</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.08094846718190403</v>
+        <v>0.08444125518335915</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.0941642399105813</v>
+        <v>0.1719775832553087</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.02104657420010011</v>
+        <v>0.02123295558209319</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.06574357867074174</v>
+        <v>0.08364281042257579</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.07227430482113076</v>
+        <v>0.08658446410181179</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.08498318549744691</v>
+        <v>0.2259183680348313</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.08705765573122971</v>
+        <v>0.1132678322848919</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>4.017882626373744</v>
+        <v>3.989343804505117</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>4.303221168142659</v>
+        <v>4.14908444440106</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>4.482979327375446</v>
+        <v>4.500292598258331</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>4.479673553023074</v>
+        <v>3.639493132335221</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>16.54598291468891</v>
+        <v>16.40287148426995</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>4.523547482794664</v>
+        <v>4.182338337193631</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>4.815237825274912</v>
+        <v>4.314095351653358</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>4.643465286211633</v>
+        <v>2.790007177391365</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>4.481326440199259</v>
+        <v>4.069892865296776</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.4287434707450254</v>
+        <v>0.4192447685773933</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.2966550954401903</v>
+        <v>0.3465717253196297</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.3628903049592054</v>
+        <v>0.3800103556893141</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.4218250551679508</v>
+        <v>0.6259112331733045</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.3482362571275888</v>
+        <v>0.3482814416442868</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.2973941998059468</v>
+        <v>0.3498225326609578</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.3480179663701577</v>
+        <v>0.3735336341070233</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.3946164717690786</v>
+        <v>0.6303138683217234</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.3901445815576407</v>
+        <v>0.4729051508220665</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.455224042382478</v>
+        <v>1.474072413563964</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.732470100120617</v>
+        <v>1.579448887897581</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.441444422836295</v>
+        <v>1.475225865537574</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.484865172049397</v>
+        <v>1.26297300168902</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.688481029904276</v>
+        <v>1.689179354507318</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.713483987489671</v>
+        <v>1.558466647247098</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.515670549225267</v>
+        <v>1.518298078528007</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.594036341543702</v>
+        <v>1.254083596079631</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.463154797442846</v>
+        <v>1.369099433613297</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.6239178066426698</v>
+        <v>0.6179971478909435</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.5139460828985577</v>
+        <v>0.5473923261328348</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.5230862061848089</v>
+        <v>0.5606011058850098</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.6263533331167056</v>
+        <v>0.7905089889517647</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.5879903140848014</v>
+        <v>0.5883098207835744</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.5095801993397935</v>
+        <v>0.5451867496076113</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.5274805822285177</v>
+        <v>0.567135398930277</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.6290329969716657</v>
+        <v>0.7904662826437697</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.5700809438838759</v>
+        <v>0.6559942303916215</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.261529546739136</v>
+        <v>1.26594914584902</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.428633157790919</v>
+        <v>1.359311368162466</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.421377552142796</v>
+        <v>1.354863241612031</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.272488569084012</v>
+        <v>1.122082557705503</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.338406826121546</v>
+        <v>1.335492916960817</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.450735410581024</v>
+        <v>1.383199747544647</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.428396018832966</v>
+        <v>1.369567898742346</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.284229063671715</v>
+        <v>1.124546288071133</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.346933060613404</v>
+        <v>1.238472899658767</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.787090747816403</v>
+        <v>0.7823529615096705</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.73424041534564</v>
+        <v>0.7440766117572583</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.7435029913066258</v>
+        <v>0.7595378315706536</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.7970274565986782</v>
+        <v>0.8870163482121876</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.7869702500644498</v>
+        <v>0.7856835986349515</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.7392660397131754</v>
+        <v>0.7541021744219346</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.7534511636669095</v>
+        <v>0.7767304366153417</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.8078224567195351</v>
+        <v>0.8889159239924379</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.7693353921571509</v>
+        <v>0.8183423077856569</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.098194388735803</v>
+        <v>1.100722046713788</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.144201140468913</v>
+        <v>1.1304943940226</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.141522929620764</v>
+        <v>1.130547764791721</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.077051402870883</v>
+        <v>1.037949245869302</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.101483084440932</v>
+        <v>1.10126246839916</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.140729683535233</v>
+        <v>1.124050087261793</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.135967461280903</v>
+        <v>1.119890649887898</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.074817909649975</v>
+        <v>1.037677081953073</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.109287166245824</v>
+        <v>1.084248505330511</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.8643786426778404</v>
+        <v>0.8611531530455181</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.8401187206168497</v>
+        <v>0.8411744383149108</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.8487257128181411</v>
+        <v>0.8586937977569526</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.8584395402562182</v>
+        <v>0.9206779497005825</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.8668344184042418</v>
+        <v>0.8652438592134614</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.8433027155303554</v>
+        <v>0.8476486149632837</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.8558960055898415</v>
+        <v>0.8698531534488656</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.8682620442995979</v>
+        <v>0.9224076821100927</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.8535549905355311</v>
+        <v>0.8886062693409659</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.056699419043054</v>
+        <v>1.058061483243986</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.076602552828808</v>
+        <v>1.075522368072695</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.080371115042484</v>
+        <v>1.078677871054296</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.088632800654106</v>
+        <v>1.032372694920244</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.05648874334712</v>
+        <v>1.056506521353849</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.075429177589442</v>
+        <v>1.071496638904515</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.074457354704644</v>
+        <v>1.068116218343992</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.078428793361644</v>
+        <v>1.031334871809481</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.084501957848295</v>
+        <v>1.05552528298727</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9133884095508976</v>
+        <v>0.9111529824115761</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9044739592953727</v>
+        <v>0.9047019238586719</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9169387447225625</v>
+        <v>0.926253997651998</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9345254409013496</v>
+        <v>0.9504827760860349</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.915800805389929</v>
+        <v>0.9141357798203938</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.906912345821753</v>
+        <v>0.9082526419052255</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.9196237580683325</v>
+        <v>0.9291042607763986</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9363587887557298</v>
+        <v>0.9513112085850924</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9256485665183105</v>
+        <v>0.9382119894155695</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.021621710778971</v>
+        <v>1.022085927398804</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.026026959759747</v>
+        <v>1.025677745337738</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.02182952849299</v>
+        <v>1.021726486702326</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.016979716838678</v>
+        <v>1.015220881978072</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.020574521562057</v>
+        <v>1.020866467342407</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.024744762551898</v>
+        <v>1.02398401967253</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.020964940978062</v>
+        <v>1.020443152645695</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.016514921576228</v>
+        <v>1.014857127719908</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.019404622665834</v>
+        <v>1.018473684340199</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9331374295710715</v>
+        <v>0.9312766410303219</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9280146666376925</v>
+        <v>0.9279326294660762</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9369550851768103</v>
+        <v>0.9463782428149609</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9503934182663952</v>
+        <v>0.9649499622430309</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9346429688069727</v>
+        <v>0.9332105642165416</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9293536764744965</v>
+        <v>0.9300361911363078</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9389036158782588</v>
+        <v>0.948098081003216</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9518226807192424</v>
+        <v>0.9654449607124216</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9436264097899465</v>
+        <v>0.9555738750208153</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.015429027871929</v>
+        <v>1.015378809821425</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.015643081497016</v>
+        <v>1.015306719630371</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.01328424899983</v>
+        <v>1.014032809501103</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.012832499315193</v>
+        <v>1.009964095493678</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.015100677130254</v>
+        <v>1.014792063909915</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.015245945227283</v>
+        <v>1.014531797976406</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.013346238213166</v>
+        <v>1.012983362907775</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.012312968184615</v>
+        <v>1.009415230947572</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.013058374157512</v>
+        <v>1.01199845249739</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.947534832980264</v>
+        <v>0.9455985673838631</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9425316756983324</v>
+        <v>0.9421362340611865</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9494018298299564</v>
+        <v>0.9596585884123714</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.962589341155463</v>
+        <v>0.974564815813441</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9487567105109885</v>
+        <v>0.94701467452384</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9435225517228003</v>
+        <v>0.9435512891766469</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9514344471949726</v>
+        <v>0.9604075824610463</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9635424431043335</v>
+        <v>0.9745348479846982</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9559501066072421</v>
+        <v>0.9670542641729954</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.015192550720697</v>
+        <v>1.015511682551279</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.018036790390658</v>
+        <v>1.018030595682182</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.019595522331751</v>
+        <v>1.010167672392451</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.011022358667995</v>
+        <v>1.005383051527281</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.014352266291929</v>
+        <v>1.014538567875901</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.017277458087282</v>
+        <v>1.01709483413991</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.017543130410087</v>
+        <v>1.009928211231651</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.011048428039931</v>
+        <v>1.00579423614183</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.015308940499873</v>
+        <v>1.007775361959866</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9619303039899442</v>
+        <v>0.9602663921820657</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9595319219694592</v>
+        <v>0.9591235115750772</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.968005854588194</v>
+        <v>0.9694160825479505</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9731993461236673</v>
+        <v>0.9798109484336404</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9623735194664969</v>
+        <v>0.9607829116488792</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9598242230645965</v>
+        <v>0.9596811419676202</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9681255857787628</v>
+        <v>0.9699427118081989</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9741880724503912</v>
+        <v>0.9801815330223638</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9705956530341537</v>
+        <v>0.9745857985458054</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.011875419253079</v>
+        <v>1.012248703180058</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.013705050655935</v>
+        <v>1.013432457571048</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.011186426846525</v>
+        <v>1.009165294935638</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.010164137520081</v>
+        <v>1.004439592338345</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.011181548169845</v>
+        <v>1.011352127789245</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.01310769441035</v>
+        <v>1.012502440906404</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.010860667863407</v>
+        <v>1.00863432231979</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.009776531682769</v>
+        <v>1.004327718358369</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.010675282183303</v>
+        <v>1.006802443636992</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9733536296420666</v>
+        <v>0.9720284101936888</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9726823555660373</v>
+        <v>0.9720068974497045</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9788343812675525</v>
+        <v>0.9783010668598529</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9830910781121213</v>
+        <v>0.9841609096133331</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9731343453317943</v>
+        <v>0.9716898420396398</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.972405305668179</v>
+        <v>0.9716794987340611</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9786400762159727</v>
+        <v>0.9783175098136816</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9837122530056779</v>
+        <v>0.984423482637359</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9809581119129637</v>
+        <v>0.9812222395939424</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.006833074768356</v>
+        <v>1.006951669865966</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.007378218067358</v>
+        <v>1.00682388420343</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.00583562283587</v>
+        <v>1.005132847462834</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.005485261434979</v>
+        <v>1.00330678572767</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.006582098032131</v>
+        <v>1.00668794752541</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.007173617060425</v>
+        <v>1.006517048973852</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.005571949188722</v>
+        <v>1.004775714697029</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.004946167049513</v>
+        <v>1.003303537794255</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.005660442135424</v>
+        <v>1.004219816595252</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.980004627769462</v>
+        <v>0.9787856308016954</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9798590180956754</v>
+        <v>0.9786397599628367</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9845464895354122</v>
+        <v>0.983322537008772</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9884835896899612</v>
+        <v>0.9874153188629734</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.979539610991202</v>
+        <v>0.9781884527141751</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9793809689585683</v>
+        <v>0.9780119816141988</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9840930089946955</v>
+        <v>0.9829896751236592</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9885778581376973</v>
+        <v>0.9876755628178041</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9865111114521913</v>
+        <v>0.9853646780395063</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.005197069583553</v>
+        <v>1.005366195442511</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.005346444559637</v>
+        <v>1.005516049981729</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.005306151193238</v>
+        <v>1.005797517784909</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.00519288931758</v>
+        <v>1.005052072173205</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.005110270811735</v>
+        <v>1.005303694642338</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.005273080526684</v>
+        <v>1.005485090220448</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.005237934148278</v>
+        <v>1.005750046991743</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.00498437860288</v>
+        <v>1.004930519801392</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.005249520255409</v>
+        <v>1.005424794979057</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9850977800121838</v>
+        <v>0.9840379857928993</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9850977800121838</v>
+        <v>0.9840379857928993</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9897706420656582</v>
+        <v>0.9890233669053828</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9936166755634656</v>
+        <v>0.9924038123187977</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9845453236741882</v>
+        <v>0.9833764655700322</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9845453236741882</v>
+        <v>0.9833764655700322</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9892476233715907</v>
+        <v>0.9886419119480188</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.99350530446108</v>
+        <v>0.9925453167376281</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9916899298470692</v>
+        <v>0.9907107059807075</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.003253334738231</v>
+        <v>1.003318910623683</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.003253334738231</v>
+        <v>1.003318910623683</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.003426358553652</v>
+        <v>1.003870252605875</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.002921121968702</v>
+        <v>1.00281457930429</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.003204057618645</v>
+        <v>1.003276525365398</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.003204057618645</v>
+        <v>1.003276525365398</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.003417782388086</v>
+        <v>1.003993082768792</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.002898268359419</v>
+        <v>1.003066922466909</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.003173740261177</v>
+        <v>1.003342415955083</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9883026328404521</v>
+        <v>0.987303919918055</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9883026328404521</v>
+        <v>0.987303919918055</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9931619511712534</v>
+        <v>0.9928511371684196</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9965191510629231</v>
+        <v>0.9951970115504488</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9876998636194072</v>
+        <v>0.986598523503208</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9876998636194072</v>
+        <v>0.986598523503208</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9926286564762058</v>
+        <v>0.9925896409311237</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9963847494499142</v>
+        <v>0.9955893762689557</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9948377188061467</v>
+        <v>0.9940226903067844</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.002587179727201</v>
+        <v>1.002512046544872</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.002587179727201</v>
+        <v>1.002512046544872</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.002916978628329</v>
+        <v>1.002268914738955</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.00241409002401</v>
+        <v>1.000785509222248</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.00264785581209</v>
+        <v>1.002647781123718</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.00264785581209</v>
+        <v>1.002647781123718</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.003109197029799</v>
+        <v>1.002431812607383</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.002560472990825</v>
+        <v>1.000771963577761</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.00266553432617</v>
+        <v>1.001527211980601</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9908595493764764</v>
+        <v>0.9897840733188241</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9908595493764764</v>
+        <v>0.9897840733188241</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9960589833572895</v>
+        <v>0.9951038317471289</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9989248380042393</v>
+        <v>0.995978747980975</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9903151504438924</v>
+        <v>0.9892108204504273</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9903151504438924</v>
+        <v>0.9892108204504273</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9957149345466149</v>
+        <v>0.9950034329338973</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9989359656893506</v>
+        <v>0.9963579350058414</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9974898522372898</v>
+        <v>0.9955410976373648</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.007159821116223</v>
+        <v>1.006927465193585</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.007159821116223</v>
+        <v>1.006927465193585</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.001510822756019</v>
+        <v>1.001121779164052</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.000225164037722</v>
+        <v>1.000339892929448</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.007671366188777</v>
+        <v>1.007669547188003</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.007671366188777</v>
+        <v>1.007669547188003</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.001771657529639</v>
+        <v>1.001322574668279</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.000229429187984</v>
+        <v>1.000336979768927</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.00086799339687</v>
+        <v>1.00073083604675</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9979539265013133</v>
+        <v>0.996640768035905</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9979539265013133</v>
+        <v>0.996640768035905</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9975638519356825</v>
+        <v>0.9962201184916516</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9991497599541449</v>
+        <v>0.9963172741152938</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9979122206052413</v>
+        <v>0.9967976195167549</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9979122206052413</v>
+        <v>0.9967976195167549</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9974790004077787</v>
+        <v>0.9963193992691458</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9991651507568067</v>
+        <v>0.9966936874725478</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9983561761339513</v>
+        <v>0.9962686939348308</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.000717884456003</v>
+        <v>1.000714244049895</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.000717884456003</v>
+        <v>1.000714244049895</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.000931004024349</v>
+        <v>1.000821577217201</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1.000233725177164</v>
+        <v>1.000213171159032</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.000775963914111</v>
+        <v>1.000799041920549</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.000775963914111</v>
+        <v>1.000799041920549</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1.001033571575602</v>
+        <v>1.000969391442398</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1.000235571841095</v>
+        <v>1.000212817274288</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.000582364600757</v>
+        <v>1.000517374188116</v>
       </c>
     </row>
     <row r="17">
@@ -7663,62 +7663,62 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9986703421129555</v>
+        <v>0.9973526127743575</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9986703421129555</v>
+        <v>0.9973526127743575</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9984925878963798</v>
+        <v>0.9970385902443217</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.999383286408804</v>
+        <v>0.9965296602233802</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9986865644778811</v>
+        <v>0.9975941026010527</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9986865644778811</v>
+        <v>0.9975941026010527</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9985099663498598</v>
+        <v>0.9972852227686929</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9994005259309285</v>
+        <v>0.9969058011064156</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9989377386057627</v>
+        <v>0.996784060272502</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.000254281737365</v>
+        <v>1.000280497609064</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.000254281737365</v>
+        <v>1.000280497609064</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.000332731296095</v>
+        <v>1.000367757688055</v>
       </c>
       <c r="Q17" s="22" t="n">
-        <v>1.000166558266202</v>
+        <v>1.000234170002376</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1.000257594126758</v>
+        <v>1.00028587268504</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1.000257594126758</v>
+        <v>1.00028587268504</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1.000343458835677</v>
+        <v>1.000381163580053</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>1.000144992917348</v>
+        <v>1.000220402406101</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.000249644781148</v>
+        <v>1.000300963845215</v>
       </c>
     </row>
     <row r="18">
@@ -7727,62 +7727,62 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9989242857426033</v>
+        <v>0.9976323677976343</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9989242857426033</v>
+        <v>0.9976323677976343</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9988248176292914</v>
+        <v>0.9974052588511716</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>0.9995497419562597</v>
+        <v>0.9967630175762822</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9989438202713622</v>
+        <v>0.9978792875057433</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9989438202713622</v>
+        <v>0.9978792875057433</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9988529134203139</v>
+        <v>0.9976653515745376</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>0.9995454319287824</v>
+        <v>0.9971255215436357</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9991871483070944</v>
+        <v>0.9970840347937044</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1.000582449115264</v>
+        <v>1.001892464046526</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1.000582449115264</v>
+        <v>1.001892464046526</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1.00068209226256</v>
+        <v>1.002120594728572</v>
       </c>
       <c r="Q18" s="22" t="n">
-        <v>1.000184334890782</v>
+        <v>1.002990309067195</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>1.00054636584561</v>
+        <v>1.001626588523361</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>1.00054636584561</v>
+        <v>1.001626588523361</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1.000637426819879</v>
+        <v>1.001841373888612</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>1.000188224144241</v>
+        <v>1.002624481907135</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1.000433213576671</v>
+        <v>1.002555451897884</v>
       </c>
     </row>
     <row r="19">
@@ -7791,62 +7791,62 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9995061083090494</v>
+        <v>0.9995203511853415</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9995061083090494</v>
+        <v>0.9995203511853415</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9995061083090494</v>
+        <v>0.9995203511853415</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>0.999733993848774</v>
+        <v>0.9997436470655849</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9994896090564419</v>
+        <v>0.9995024265024999</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9994896090564419</v>
+        <v>0.9995024265024999</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9994896090564419</v>
+        <v>0.9995024265024999</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>0.9997335705123375</v>
+        <v>0.9997424594340698</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.9996200380910222</v>
+        <v>0.9996319866556117</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
         <v/>
       </c>
       <c r="N19" s="22" t="n">
-        <v>1.000478534080632</v>
+        <v>1.000464224511296</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>1.000478534080632</v>
+        <v>1.000464224511296</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>1.000478534080632</v>
+        <v>1.000464224511296</v>
       </c>
       <c r="Q19" s="22" t="n">
-        <v>1.000266076929326</v>
+        <v>1.000256418668093</v>
       </c>
       <c r="R19" s="22" t="n">
-        <v>1.000494042253931</v>
+        <v>1.000481212091564</v>
       </c>
       <c r="S19" s="22" t="n">
-        <v>1.000494042253931</v>
+        <v>1.000481212091564</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1.000494042253931</v>
+        <v>1.000481212091564</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>1.000266500491252</v>
+        <v>1.00025760691016</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1.000372305504979</v>
+        <v>1.000360321589695</v>
       </c>
     </row>
     <row r="20">
@@ -7855,13 +7855,13 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>0.9999844060456748</v>
+        <v>0.9999843530319013</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>0.9999844060456748</v>
+        <v>0.9999843530319013</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>0.9999844060456748</v>
+        <v>0.9999843530319013</v>
       </c>
       <c r="E20" s="34" t="n">
         <v>1</v>
@@ -7879,20 +7879,20 @@
         <v>1</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>0.9999922029620441</v>
+        <v>0.9999921764547433</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
         <v/>
       </c>
       <c r="N20" s="22" t="n">
-        <v>1.0000155941975</v>
+        <v>1.00001564721293</v>
       </c>
       <c r="O20" s="22" t="n">
-        <v>1.0000155941975</v>
+        <v>1.00001564721293</v>
       </c>
       <c r="P20" s="22" t="n">
-        <v>1.0000155941975</v>
+        <v>1.00001564721293</v>
       </c>
       <c r="Q20" s="22" t="n">
         <v>1</v>
@@ -7910,7 +7910,7 @@
         <v>1</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1.00000779709875</v>
+        <v>1.000007823606465</v>
       </c>
     </row>
     <row r="21">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>212000.17</v>
+        <v>192774.08</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>772744.2204</v>
+        <v>777381.8404</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>34198.72</v>
+        <v>34530.82</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>146591.42</v>
+        <v>129070.95</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>174403.09</v>
+        <v>148758.05</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>194574.91</v>
+        <v>173259.01</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>200487.4</v>
+        <v>183943.65</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>203993.04</v>
+        <v>186781.59</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>206380.92</v>
+        <v>188592.1</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>208819.14</v>
+        <v>189717.1</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>209537.03</v>
+        <v>189717.1</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>209640.93</v>
+        <v>190318.38</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>209991.64</v>
+        <v>191154.46</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>210654.49</v>
+        <v>191752.19</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>211617.17</v>
+        <v>191952.76</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>211782.85</v>
+        <v>192118.08</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>211935.17</v>
+        <v>192313.08</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>211935.17</v>
+        <v>192378.08</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>211935.17</v>
+        <v>192378.08</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>211935.17</v>
+        <v>192443.08</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>212000.17</v>
+        <v>192758.08</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>212000.17</v>
+        <v>192774.08</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>212000.17</v>
+        <v>192774.08</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>212000.17</v>
+        <v>192774.08</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>212000.17</v>
+        <v>192774.08</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>212000.17</v>
+        <v>192774.08</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>192774.08</v>
+        <v>228298.39</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>777381.8404</v>
+        <v>765942.1604000001</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>34530.82</v>
+        <v>52842.75</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>129070.95</v>
+        <v>145359.08</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>148758.05</v>
+        <v>173830.95</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>173259.01</v>
+        <v>180957.09</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>183943.65</v>
+        <v>185272.16</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>186781.59</v>
+        <v>195987.16</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>188592.1</v>
+        <v>198215.52</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>189717.1</v>
+        <v>204286.13</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>189717.1</v>
+        <v>206149.15</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>190318.38</v>
+        <v>207543.89</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>191154.46</v>
+        <v>209833.85</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>191752.19</v>
+        <v>212890.9</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>191952.76</v>
+        <v>213512.83</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>192118.08</v>
+        <v>213982.49</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>192313.08</v>
+        <v>227481.84</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>192378.08</v>
+        <v>227582.9</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>192378.08</v>
+        <v>227582.9</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>192443.08</v>
+        <v>228247.9</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>192758.08</v>
+        <v>228298.39</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>192774.08</v>
+        <v>228298.39</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>192774.08</v>
+        <v>228298.39</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>192774.08</v>
+        <v>228298.39</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>192774.08</v>
+        <v>228298.39</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>228298.39</v>
+        <v>195059.83</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>765942.1604000001</v>
+        <v>761246.9570000001</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>52842.75</v>
+        <v>28243.6</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>145359.08</v>
+        <v>128438.49</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>173830.95</v>
+        <v>169289.84</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>180957.09</v>
+        <v>173654.08</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>185272.16</v>
+        <v>180367.71</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>195987.16</v>
+        <v>185525.4</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>198215.52</v>
+        <v>187040.45</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>204286.13</v>
+        <v>187478.04</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>206149.15</v>
+        <v>189305.81</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>207543.89</v>
+        <v>191258.99</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>209833.85</v>
+        <v>192443.5</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>212890.9</v>
+        <v>193103.33</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>213512.83</v>
+        <v>193806.2899999999</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>213982.49</v>
+        <v>194648.4099999999</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>227481.84</v>
+        <v>194894.3</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>227582.9</v>
+        <v>195009.83</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>227582.9</v>
+        <v>195009.83</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>228247.9</v>
+        <v>195009.83</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>228298.39</v>
+        <v>195059.83</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>228298.39</v>
+        <v>195059.83</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>228298.39</v>
+        <v>195059.83</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>228298.39</v>
+        <v>195059.83</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>195059.83</v>
+        <v>197906.19</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>761246.9570000001</v>
+        <v>793466.1816000001</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>28243.6</v>
+        <v>47025</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>128438.49</v>
+        <v>132212.14</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>169289.84</v>
+        <v>164499.46</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>173654.08</v>
+        <v>178029.77</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>180367.71</v>
+        <v>182648.85</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>185525.4</v>
+        <v>183873.85</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>187040.45</v>
+        <v>185985.31</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>187478.04</v>
+        <v>190265.74</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>189305.81</v>
+        <v>191903.96</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>191258.99</v>
+        <v>193311.76</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>192443.5</v>
+        <v>194138.13</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>193103.33</v>
+        <v>194888.9</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>193806.2899999999</v>
+        <v>195428.9</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>194648.4099999999</v>
+        <v>195874.91</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>194894.3</v>
+        <v>196540.01</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>195009.83</v>
+        <v>197475.14</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>195009.83</v>
+        <v>197796.19</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>195009.83</v>
+        <v>197846.19</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>195059.83</v>
+        <v>197906.19</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>195059.83</v>
+        <v>197906.19</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>195059.83</v>
+        <v>197906.19</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>197906.19</v>
+        <v>208523.83</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>793466.1816000001</v>
+        <v>844307.9016</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>47025</v>
+        <v>40850.05</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>132212.14</v>
+        <v>123031.18</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>164499.46</v>
+        <v>181998.5</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>178029.77</v>
+        <v>189818.33</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>182648.85</v>
+        <v>193058.33</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>183873.85</v>
+        <v>194625.87</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>185985.31</v>
+        <v>198710.28</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>190265.74</v>
+        <v>201718.26</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>191903.96</v>
+        <v>203472.22</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>193311.76</v>
+        <v>204184.01</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>194138.13</v>
+        <v>205125.7</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>194888.9</v>
+        <v>205457.15</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>195428.9</v>
+        <v>206072.2</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>195874.91</v>
+        <v>207070.91</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>196540.01</v>
+        <v>208378.83</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>197475.14</v>
+        <v>208408.83</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>197796.19</v>
+        <v>208408.83</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>197846.19</v>
+        <v>208473.83</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>197906.19</v>
+        <v>208523.83</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>197906.19</v>
+        <v>208523.83</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>208523.83</v>
+        <v>217709.51</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>844307.9016</v>
+        <v>862128.4715999999</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>40850.05</v>
+        <v>8000</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>123031.18</v>
+        <v>149877.54</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>181998.5</v>
+        <v>179247.77</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>189818.33</v>
+        <v>182597.47</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>193058.33</v>
+        <v>189444.21</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>194625.87</v>
+        <v>195878.96</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>198710.28</v>
+        <v>200989.37</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>201718.26</v>
+        <v>204129.99</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>203472.22</v>
+        <v>212885.6</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>204184.01</v>
+        <v>213788.25</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>205125.7</v>
+        <v>215196.07</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>205457.15</v>
+        <v>216324.08</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>206072.2</v>
+        <v>216754.08</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>207070.91</v>
+        <v>217549.4600000001</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>208378.83</v>
+        <v>217599.4600000001</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>208408.83</v>
+        <v>217659.51</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>208408.83</v>
+        <v>217659.51</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>208473.83</v>
+        <v>217659.51</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>208523.83</v>
+        <v>217709.51</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>217659.51</v>
+        <v>266495.73</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>862128.4715999999</v>
+        <v>920567.5715999999</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>8000</v>
+        <v>46887.2</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>149877.54</v>
+        <v>183388.09</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>179247.77</v>
+        <v>188553.6</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>182597.47</v>
+        <v>204153.41</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>189444.21</v>
+        <v>225759.49</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>195878.96</v>
+        <v>240436.98</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>200989.37</v>
+        <v>245813.82</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>204129.99</v>
+        <v>248333.44</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>212885.6</v>
+        <v>252912.95</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>213788.25</v>
+        <v>256373.73</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>215196.07</v>
+        <v>261489.1500000001</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>216324.08</v>
+        <v>262168.6</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>216754.08</v>
+        <v>263632.76</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>217549.4600000001</v>
+        <v>264280.73</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>217599.4600000001</v>
+        <v>264380.73</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>217659.51</v>
+        <v>264380.73</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>217659.51</v>
+        <v>264495.73</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>217659.51</v>
+        <v>266495.73</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>264495.73</v>
+        <v>267091.35</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>920567.5715999999</v>
+        <v>891859.2416</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>46887.2</v>
+        <v>31275</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>183388.09</v>
+        <v>46898.78</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>188553.6</v>
+        <v>81237.87</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>204153.41</v>
+        <v>172483.88</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>225759.49</v>
+        <v>211487.58</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>240436.98</v>
+        <v>231021.8</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>245813.82</v>
+        <v>238445.22</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>248333.44</v>
+        <v>243336.3</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>252912.95</v>
+        <v>246461.9</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>256373.73</v>
+        <v>259540.6</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>261489.1500000001</v>
+        <v>261599.33</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>262168.6</v>
+        <v>264125.34</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>263632.76</v>
+        <v>265245.31</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>264280.73</v>
+        <v>266875.94</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>264380.73</v>
+        <v>266915.94</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>264380.73</v>
+        <v>267030.94</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>264495.73</v>
+        <v>267091.35</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>267091.35</v>
+        <v>313160.23</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>891859.2416</v>
+        <v>917324.7135999999</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>31275</v>
+        <v>1607.52</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>46898.78</v>
+        <v>23359.98</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>81237.87</v>
+        <v>117939.13</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>172544.29</v>
+        <v>220032.14</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>211547.99</v>
+        <v>273647.9</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>231082.21</v>
+        <v>283817.68</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>238505.63</v>
+        <v>291625.7</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>243396.71</v>
+        <v>299781.05</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>246522.31</v>
+        <v>302956.43</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>259601.01</v>
+        <v>307924.8</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>261659.74</v>
+        <v>309722.75</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>264185.75</v>
+        <v>311030.91</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>265305.72</v>
+        <v>312565.11</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>266936.35</v>
+        <v>313045.11</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>266976.35</v>
+        <v>313095.23</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>267091.35</v>
+        <v>313160.23</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>313195.23</v>
+        <v>296533.19</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>917324.7136</v>
+        <v>898993.9436</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1607.52</v>
+        <v>225</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>23359.98</v>
+        <v>59951.68</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>117939.13</v>
+        <v>183769.5</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>220032.14</v>
+        <v>234873.79</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>273697.9</v>
+        <v>250659.06</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>283867.68</v>
+        <v>261605.16</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>291675.7</v>
+        <v>271013.32</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>299831.05</v>
+        <v>274642.99</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>303006.43</v>
+        <v>288952.78</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>308024.8</v>
+        <v>292832.16</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>309822.75</v>
+        <v>294245.31</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>311130.91</v>
+        <v>295960.48</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>312665.11</v>
+        <v>296325.48</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>313145.11</v>
+        <v>296325.48</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>313195.23</v>
+        <v>296533.19</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>296325.48</v>
+        <v>323139.0599999999</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>898993.9436</v>
+        <v>793677.1135999999</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>225</v>
+        <v>19650</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>59951.68</v>
+        <v>100006.83</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>183769.5</v>
+        <v>188667.73</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>234873.79</v>
+        <v>240655.44</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>250659.06</v>
+        <v>270026.1899999999</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>261605.16</v>
+        <v>301028.47</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>271013.32</v>
+        <v>309186.78</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>274642.99</v>
+        <v>311887.53</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>288952.78</v>
+        <v>315752.16</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>292832.16</v>
+        <v>317598.31</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>294245.31</v>
+        <v>320164.17</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>295960.48</v>
+        <v>322072.14</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>296325.48</v>
+        <v>322887.14</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>296325.48</v>
+        <v>323139.0599999999</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>322887.14</v>
+        <v>214512.73</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>793677.1135999999</v>
+        <v>712288.322</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>19650</v>
+        <v>13750</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>100006.83</v>
+        <v>71871.32000000001</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>188667.73</v>
+        <v>123564.36</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>240655.44</v>
+        <v>158722.9</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>270026.1899999999</v>
+        <v>179529.34</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>301028.47</v>
+        <v>197855.37</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>309186.78</v>
+        <v>201827.95</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>311887.53</v>
+        <v>206311.88</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>315752.16</v>
+        <v>207888.45</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>317598.31</v>
+        <v>211952.73</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>320164.17</v>
+        <v>212677.73</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>322072.14</v>
+        <v>213352.73</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>322887.14</v>
+        <v>214512.73</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>213962.73</v>
+        <v>180765.96</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>712288.322</v>
+        <v>652147.992</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>13750</v>
+        <v>18700</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>71881.32000000001</v>
+        <v>53468.5</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>123574.36</v>
+        <v>95961.48999999999</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>158732.9</v>
+        <v>145952.79</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>179539.34</v>
+        <v>157998.83</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>198465.37</v>
+        <v>167348.13</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>202437.95</v>
+        <v>172128.99</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>206921.88</v>
+        <v>174238.48</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>208498.45</v>
+        <v>178098.52</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>212562.73</v>
+        <v>179148.87</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>213287.73</v>
+        <v>179748.87</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>213962.73</v>
+        <v>180765.96</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>179768.87</v>
+        <v>191725.72</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>652147.992</v>
+        <v>593816.92</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>18700</v>
+        <v>11550</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>53468.5</v>
+        <v>53200.3</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>95961.48999999999</v>
+        <v>89708.45000000001</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>145952.79</v>
+        <v>144762.67</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>158018.83</v>
+        <v>162526.8</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>167368.13</v>
+        <v>182031.13</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>172148.99</v>
+        <v>187066.74</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>174258.48</v>
+        <v>189906.9</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>178118.52</v>
+        <v>190375.42</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>179168.87</v>
+        <v>191125.42</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>179768.87</v>
+        <v>191725.72</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>191125.42</v>
+        <v>127545.89</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>593816.92</v>
+        <v>538049.1900000001</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>11550</v>
+        <v>13666.33</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>53200.3</v>
+        <v>50834.11</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>89708.45000000001</v>
+        <v>66889.00999999999</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>144762.67</v>
+        <v>94190.37999999999</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>162526.8</v>
+        <v>118659.16</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>182031.13</v>
+        <v>122490.09</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>187066.74</v>
+        <v>125167.2</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>189906.9</v>
+        <v>126070.89</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>190375.42</v>
+        <v>127145.89</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>191125.42</v>
+        <v>127545.89</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>127145.89</v>
+        <v>157527.44</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>538049.1900000001</v>
+        <v>494665.73</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>13666.33</v>
+        <v>13850</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>50834.11</v>
+        <v>53862.36</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>66889.00999999999</v>
+        <v>64054.21</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>94190.37999999999</v>
+        <v>107855.2</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>118659.16</v>
+        <v>130381.72</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>122490.09</v>
+        <v>151555.8</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>125167.2</v>
+        <v>154284.69</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>126070.89</v>
+        <v>156527.44</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>127145.89</v>
+        <v>157527.44</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>156527.44</v>
+        <v>104844.47</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>494665.73</v>
+        <v>448035.97</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>13850</v>
+        <v>9175</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>53862.36</v>
+        <v>36722.74000000001</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>64054.21</v>
+        <v>53387.10000000001</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>107855.2</v>
+        <v>86792.39000000001</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>130381.72</v>
+        <v>98741.42000000001</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>151555.8</v>
+        <v>103169.47</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>154284.69</v>
+        <v>104168.48</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>156527.44</v>
+        <v>104844.47</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>104168.48</v>
+        <v>91342.86</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>448035.97</v>
+        <v>401374.72</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>9175</v>
+        <v>4350</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>36722.74000000001</v>
+        <v>32698.15</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>53387.10000000001</v>
+        <v>54570.12</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>86792.39000000001</v>
+        <v>83723.60000000001</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>98741.42000000001</v>
+        <v>87376.28</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>103169.47</v>
+        <v>89826.38</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>104168.48</v>
+        <v>91342.86</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>89826.38</v>
+        <v>77399.17999999999</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>401374.72</v>
+        <v>345368.74</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>4350</v>
+        <v>8350</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>32698.15</v>
+        <v>28738.5</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>54570.12</v>
+        <v>63938.67</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>83723.60000000001</v>
+        <v>72662.84</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>87376.28</v>
+        <v>75798.39999999999</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>89826.38</v>
+        <v>77399.17999999999</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>75798.39999999999</v>
+        <v>74875.71000000001</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>345368.74</v>
+        <v>299134.72</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>8350</v>
+        <v>7250.8</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>28738.5</v>
+        <v>47536.23</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>63938.67</v>
+        <v>61726.11</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>72662.84</v>
+        <v>72960.41</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>75798.39999999999</v>
+        <v>74875.71000000001</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>72960.41</v>
+        <v>72830.92999999999</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>299134.72</v>
+        <v>215530.77</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>7250.8</v>
+        <v>11425</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>47536.23</v>
+        <v>54822.78</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>61726.11</v>
+        <v>69021.59</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>72960.41</v>
+        <v>72830.92999999999</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>69071.59</v>
+        <v>30438.32</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>215530.77</v>
+        <v>31986.28</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>30</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>11425</v>
+        <v>9825</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>54872.78</v>
+        <v>25265.27</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>69071.59</v>
+        <v>30438.32</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>25265.27</v>
+        <v>1041.42</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v/>
+        <v>127.18</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>30</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>9825</v>
+        <v>1041.42</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>25265.27</v>
+        <v>1041.42</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>1041.42</v>
+        <v/>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>1041.42</v>
+        <v/>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
